--- a/teaching/traditional_assets/database/data/jamaica/jamaica_green_renewable_energy.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_green_renewable_energy.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="jmse_wig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,109 +593,115 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.8729281767955801</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="H2">
-        <v>0.8729281767955801</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="I2">
-        <v>0.4834254143646409</v>
+        <v>0.4854545454545454</v>
       </c>
       <c r="J2">
-        <v>0.3679713243439668</v>
+        <v>0.3710710069151627</v>
       </c>
       <c r="K2">
-        <v>5.96</v>
+        <v>4.11</v>
       </c>
       <c r="L2">
-        <v>0.3292817679558011</v>
+        <v>0.2490909090909091</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.003344709897610922</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.04768856447688564</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.003344709897610922</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.04768856447688564</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>13.1</v>
+        <v>25.1</v>
       </c>
       <c r="V2">
-        <v>0.1613300492610837</v>
+        <v>0.4283276450511945</v>
       </c>
       <c r="W2">
-        <v>0.3329608938547486</v>
+        <v>0.160546875</v>
       </c>
       <c r="X2">
-        <v>0.1085083654633486</v>
+        <v>0.1201120273606909</v>
       </c>
       <c r="Y2">
-        <v>0.2244525283914</v>
+        <v>0.0404348476393091</v>
       </c>
       <c r="Z2">
-        <v>0.2596843615494979</v>
+        <v>0.3005464480874316</v>
       </c>
       <c r="AA2">
-        <v>0.09555639843078623</v>
+        <v>0.111524073116579</v>
       </c>
       <c r="AB2">
-        <v>0.09187251242982392</v>
+        <v>0.09318614163249235</v>
       </c>
       <c r="AC2">
-        <v>0.003683886000962311</v>
+        <v>0.01833793148408661</v>
       </c>
       <c r="AD2">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="AG2">
-        <v>33.7</v>
+        <v>21</v>
       </c>
       <c r="AH2">
-        <v>0.365625</v>
+        <v>0.4403056351480421</v>
       </c>
       <c r="AI2">
-        <v>0.6464088397790054</v>
+        <v>0.6246612466124661</v>
       </c>
       <c r="AJ2">
-        <v>0.2932985204525674</v>
+        <v>0.263819095477387</v>
       </c>
       <c r="AK2">
-        <v>0.5682967959527824</v>
+        <v>0.4312114989733059</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AM2">
-        <v>-0.622</v>
+        <v>3.064</v>
       </c>
       <c r="AN2">
-        <v>3.366906474820143</v>
+        <v>3.6015625</v>
+      </c>
+      <c r="AO2">
+        <v>2.328488372093023</v>
       </c>
       <c r="AP2">
-        <v>2.424460431654676</v>
+        <v>1.640625</v>
       </c>
       <c r="AQ2">
-        <v>-14.06752411575563</v>
+        <v>2.614229765013055</v>
       </c>
     </row>
     <row r="3">
@@ -713,109 +721,8833 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.8729281767955801</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="H3">
-        <v>0.8729281767955801</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="I3">
-        <v>0.4834254143646409</v>
+        <v>0.4854545454545454</v>
       </c>
       <c r="J3">
-        <v>0.3679713243439668</v>
+        <v>0.3710710069151627</v>
       </c>
       <c r="K3">
-        <v>5.96</v>
+        <v>4.11</v>
       </c>
       <c r="L3">
-        <v>0.3292817679558011</v>
+        <v>0.2490909090909091</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.196</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.003344709897610922</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.04768856447688564</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.196</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.003344709897610922</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.04768856447688564</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>13.1</v>
+        <v>25.1</v>
       </c>
       <c r="V3">
-        <v>0.1613300492610837</v>
+        <v>0.4283276450511945</v>
       </c>
       <c r="W3">
-        <v>0.3329608938547486</v>
+        <v>0.160546875</v>
       </c>
       <c r="X3">
-        <v>0.1085083654633486</v>
+        <v>0.1201120273606909</v>
       </c>
       <c r="Y3">
-        <v>0.2244525283914</v>
+        <v>0.0404348476393091</v>
       </c>
       <c r="Z3">
-        <v>0.2596843615494979</v>
+        <v>0.3005464480874316</v>
       </c>
       <c r="AA3">
-        <v>0.09555639843078623</v>
+        <v>0.111524073116579</v>
       </c>
       <c r="AB3">
-        <v>0.09187251242982392</v>
+        <v>0.09318614163249235</v>
       </c>
       <c r="AC3">
-        <v>0.003683886000962311</v>
+        <v>0.01833793148408661</v>
       </c>
       <c r="AD3">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="AG3">
-        <v>33.7</v>
+        <v>21</v>
       </c>
       <c r="AH3">
-        <v>0.365625</v>
+        <v>0.4403056351480421</v>
       </c>
       <c r="AI3">
-        <v>0.6464088397790054</v>
+        <v>0.6246612466124661</v>
       </c>
       <c r="AJ3">
-        <v>0.2932985204525674</v>
+        <v>0.263819095477387</v>
       </c>
       <c r="AK3">
-        <v>0.5682967959527824</v>
+        <v>0.4312114989733059</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AM3">
-        <v>-0.622</v>
+        <v>3.064</v>
       </c>
       <c r="AN3">
-        <v>3.366906474820143</v>
+        <v>3.6015625</v>
+      </c>
+      <c r="AO3">
+        <v>2.328488372093023</v>
       </c>
       <c r="AP3">
-        <v>2.424460431654676</v>
+        <v>1.640625</v>
       </c>
       <c r="AQ3">
-        <v>-14.06752411575563</v>
+        <v>2.614229765013055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wigton Windfarm Limited (JMSE:WIG)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JMSE:WIG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Green &amp; Renewable Energy</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.440305635148042</v>
+      </c>
+      <c r="F2">
+        <v>0.75</v>
+      </c>
+      <c r="G2">
+        <v>58.6</v>
+      </c>
+      <c r="H2">
+        <v>53.6478900755326</v>
+      </c>
+      <c r="I2">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="J2">
+        <v>107.072890075533</v>
+      </c>
+      <c r="K2">
+        <v>46.1</v>
+      </c>
+      <c r="L2">
+        <v>78.52500000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.09318614163249241</v>
+      </c>
+      <c r="N2">
+        <v>0.071662535178008</v>
+      </c>
+      <c r="O2">
+        <v>0.058959310750227</v>
+      </c>
+      <c r="P2">
+        <v>0.01695</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B2/B</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.120112027360691</v>
+      </c>
+      <c r="T2">
+        <v>0.235800140712032</v>
+      </c>
+      <c r="U2">
+        <v>1.102635813495</v>
+      </c>
+      <c r="V2">
+        <v>2.25379115299301</v>
+      </c>
+      <c r="W2">
+        <v>4.513527905266628</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>58.6</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.07861241433363596</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>12.8</v>
+      </c>
+      <c r="AH2">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>6.280000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>46.1</v>
+      </c>
+      <c r="AK2">
+        <v>46.1</v>
+      </c>
+      <c r="AL2">
+        <v>3.44</v>
+      </c>
+      <c r="AM2">
+        <v>46.1</v>
+      </c>
+      <c r="AN2">
+        <v>25.1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07899235098831756</v>
+      </c>
+      <c r="C2">
+        <v>120.9116174767258</v>
+      </c>
+      <c r="D2">
+        <v>95.81161747672574</v>
+      </c>
+      <c r="E2">
+        <v>-46.1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>25.1</v>
+      </c>
+      <c r="H2">
+        <v>58.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>12.8</v>
+      </c>
+      <c r="K2">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L2">
+        <v>8.01</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>8.01</v>
+      </c>
+      <c r="O2">
+        <v>2.0025</v>
+      </c>
+      <c r="P2">
+        <v>6.0075</v>
+      </c>
+      <c r="Q2">
+        <v>10.7975</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07899235098831756</v>
+      </c>
+      <c r="T2">
+        <v>0.693474200920925</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>0.01215</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07884662011084675</v>
+      </c>
+      <c r="C3">
+        <v>120.0653851209984</v>
+      </c>
+      <c r="D3">
+        <v>96.01238512099839</v>
+      </c>
+      <c r="E3">
+        <v>-45.053</v>
+      </c>
+      <c r="F3">
+        <v>1.047</v>
+      </c>
+      <c r="G3">
+        <v>25.1</v>
+      </c>
+      <c r="H3">
+        <v>58.6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>12.8</v>
+      </c>
+      <c r="K3">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L3">
+        <v>8.01</v>
+      </c>
+      <c r="M3">
+        <v>0.0169614</v>
+      </c>
+      <c r="N3">
+        <v>7.9930386</v>
+      </c>
+      <c r="O3">
+        <v>1.99825965</v>
+      </c>
+      <c r="P3">
+        <v>5.994778950000001</v>
+      </c>
+      <c r="Q3">
+        <v>10.78477895</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07952032334428966</v>
+      </c>
+      <c r="T3">
+        <v>0.6987277933521442</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>0.01215</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>472.2487530510453</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07870088923337595</v>
+      </c>
+      <c r="C4">
+        <v>119.2199959257922</v>
+      </c>
+      <c r="D4">
+        <v>96.21399592579222</v>
+      </c>
+      <c r="E4">
+        <v>-44.006</v>
+      </c>
+      <c r="F4">
+        <v>2.094</v>
+      </c>
+      <c r="G4">
+        <v>25.1</v>
+      </c>
+      <c r="H4">
+        <v>58.6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12.8</v>
+      </c>
+      <c r="K4">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L4">
+        <v>8.01</v>
+      </c>
+      <c r="M4">
+        <v>0.0339228</v>
+      </c>
+      <c r="N4">
+        <v>7.9760772</v>
+      </c>
+      <c r="O4">
+        <v>1.9940193</v>
+      </c>
+      <c r="P4">
+        <v>5.9820579</v>
+      </c>
+      <c r="Q4">
+        <v>10.7720579</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.08005907064630201</v>
+      </c>
+      <c r="T4">
+        <v>0.704088601955429</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.01215</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>236.1243765255226</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07855515835590517</v>
+      </c>
+      <c r="C5">
+        <v>118.3754552137947</v>
+      </c>
+      <c r="D5">
+        <v>96.41645521379471</v>
+      </c>
+      <c r="E5">
+        <v>-42.959</v>
+      </c>
+      <c r="F5">
+        <v>3.141</v>
+      </c>
+      <c r="G5">
+        <v>25.1</v>
+      </c>
+      <c r="H5">
+        <v>58.6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>12.8</v>
+      </c>
+      <c r="K5">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L5">
+        <v>8.01</v>
+      </c>
+      <c r="M5">
+        <v>0.0508842</v>
+      </c>
+      <c r="N5">
+        <v>7.9591158</v>
+      </c>
+      <c r="O5">
+        <v>1.98977895</v>
+      </c>
+      <c r="P5">
+        <v>5.96933685</v>
+      </c>
+      <c r="Q5">
+        <v>10.75933685</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.08060892614010842</v>
+      </c>
+      <c r="T5">
+        <v>0.709559942694864</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>0.01215</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>157.4162510170151</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07840942747843438</v>
+      </c>
+      <c r="C6">
+        <v>117.5317683525892</v>
+      </c>
+      <c r="D6">
+        <v>96.61976835258918</v>
+      </c>
+      <c r="E6">
+        <v>-41.912</v>
+      </c>
+      <c r="F6">
+        <v>4.188000000000001</v>
+      </c>
+      <c r="G6">
+        <v>25.1</v>
+      </c>
+      <c r="H6">
+        <v>58.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>12.8</v>
+      </c>
+      <c r="K6">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L6">
+        <v>8.01</v>
+      </c>
+      <c r="M6">
+        <v>0.06784560000000001</v>
+      </c>
+      <c r="N6">
+        <v>7.9421544</v>
+      </c>
+      <c r="O6">
+        <v>1.9855386</v>
+      </c>
+      <c r="P6">
+        <v>5.9566158</v>
+      </c>
+      <c r="Q6">
+        <v>10.7466158</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08117023695670247</v>
+      </c>
+      <c r="T6">
+        <v>0.7151452696997039</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <v>0.01215</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>118.0621882627613</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07826369660096358</v>
+      </c>
+      <c r="C7">
+        <v>116.688940755129</v>
+      </c>
+      <c r="D7">
+        <v>96.82394075512903</v>
+      </c>
+      <c r="E7">
+        <v>-40.865</v>
+      </c>
+      <c r="F7">
+        <v>5.235</v>
+      </c>
+      <c r="G7">
+        <v>25.1</v>
+      </c>
+      <c r="H7">
+        <v>58.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12.8</v>
+      </c>
+      <c r="K7">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L7">
+        <v>8.01</v>
+      </c>
+      <c r="M7">
+        <v>0.08480700000000001</v>
+      </c>
+      <c r="N7">
+        <v>7.925193</v>
+      </c>
+      <c r="O7">
+        <v>1.98129825</v>
+      </c>
+      <c r="P7">
+        <v>5.94389475</v>
+      </c>
+      <c r="Q7">
+        <v>10.73389475</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.08174336484311956</v>
+      </c>
+      <c r="T7">
+        <v>0.7208481825362247</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <v>0.01215</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>94.44975061020905</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07811796572349278</v>
+      </c>
+      <c r="C8">
+        <v>115.8469778802181</v>
+      </c>
+      <c r="D8">
+        <v>97.02897788021815</v>
+      </c>
+      <c r="E8">
+        <v>-39.818</v>
+      </c>
+      <c r="F8">
+        <v>6.282</v>
+      </c>
+      <c r="G8">
+        <v>25.1</v>
+      </c>
+      <c r="H8">
+        <v>58.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>12.8</v>
+      </c>
+      <c r="K8">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L8">
+        <v>8.01</v>
+      </c>
+      <c r="M8">
+        <v>0.1017684</v>
+      </c>
+      <c r="N8">
+        <v>7.9082316</v>
+      </c>
+      <c r="O8">
+        <v>1.9770579</v>
+      </c>
+      <c r="P8">
+        <v>5.9311737</v>
+      </c>
+      <c r="Q8">
+        <v>10.7211737</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.08232868693988594</v>
+      </c>
+      <c r="T8">
+        <v>0.7266724339437353</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.01215</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>78.70812550850755</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07797223484602199</v>
+      </c>
+      <c r="C9">
+        <v>115.0058852329974</v>
+      </c>
+      <c r="D9">
+        <v>97.23488523299737</v>
+      </c>
+      <c r="E9">
+        <v>-38.771</v>
+      </c>
+      <c r="F9">
+        <v>7.329000000000001</v>
+      </c>
+      <c r="G9">
+        <v>25.1</v>
+      </c>
+      <c r="H9">
+        <v>58.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>12.8</v>
+      </c>
+      <c r="K9">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L9">
+        <v>8.01</v>
+      </c>
+      <c r="M9">
+        <v>0.1187298</v>
+      </c>
+      <c r="N9">
+        <v>7.8912702</v>
+      </c>
+      <c r="O9">
+        <v>1.97281755</v>
+      </c>
+      <c r="P9">
+        <v>5.91845265</v>
+      </c>
+      <c r="Q9">
+        <v>10.70845265</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.08292659660862579</v>
+      </c>
+      <c r="T9">
+        <v>0.7326219380696869</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.25</v>
+      </c>
+      <c r="W9">
+        <v>0.01215</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>67.46410757872076</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.0778265039685512</v>
+      </c>
+      <c r="C10">
+        <v>114.1656683654373</v>
+      </c>
+      <c r="D10">
+        <v>97.44166836543732</v>
+      </c>
+      <c r="E10">
+        <v>-37.724</v>
+      </c>
+      <c r="F10">
+        <v>8.376000000000001</v>
+      </c>
+      <c r="G10">
+        <v>25.1</v>
+      </c>
+      <c r="H10">
+        <v>58.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>12.8</v>
+      </c>
+      <c r="K10">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L10">
+        <v>8.01</v>
+      </c>
+      <c r="M10">
+        <v>0.1356912</v>
+      </c>
+      <c r="N10">
+        <v>7.8743088</v>
+      </c>
+      <c r="O10">
+        <v>1.9685772</v>
+      </c>
+      <c r="P10">
+        <v>5.905731599999999</v>
+      </c>
+      <c r="Q10">
+        <v>10.6957316</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.08353750431364261</v>
+      </c>
+      <c r="T10">
+        <v>0.738700779241855</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.25</v>
+      </c>
+      <c r="W10">
+        <v>0.01215</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>59.03109413138066</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0776807730910804</v>
+      </c>
+      <c r="C11">
+        <v>113.3263328768373</v>
+      </c>
+      <c r="D11">
+        <v>97.64933287683732</v>
+      </c>
+      <c r="E11">
+        <v>-36.677</v>
+      </c>
+      <c r="F11">
+        <v>9.423</v>
+      </c>
+      <c r="G11">
+        <v>25.1</v>
+      </c>
+      <c r="H11">
+        <v>58.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>12.8</v>
+      </c>
+      <c r="K11">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L11">
+        <v>8.01</v>
+      </c>
+      <c r="M11">
+        <v>0.1526526</v>
+      </c>
+      <c r="N11">
+        <v>7.8573474</v>
+      </c>
+      <c r="O11">
+        <v>1.96433685</v>
+      </c>
+      <c r="P11">
+        <v>5.89301055</v>
+      </c>
+      <c r="Q11">
+        <v>10.68301055</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.08416183856162682</v>
+      </c>
+      <c r="T11">
+        <v>0.7449132213189057</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.25</v>
+      </c>
+      <c r="W11">
+        <v>0.01215</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>52.47208367233837</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0775350422136096</v>
+      </c>
+      <c r="C12">
+        <v>112.4878844143308</v>
+      </c>
+      <c r="D12">
+        <v>97.85788441433078</v>
+      </c>
+      <c r="E12">
+        <v>-35.63</v>
+      </c>
+      <c r="F12">
+        <v>10.47</v>
+      </c>
+      <c r="G12">
+        <v>25.1</v>
+      </c>
+      <c r="H12">
+        <v>58.6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>12.8</v>
+      </c>
+      <c r="K12">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L12">
+        <v>8.01</v>
+      </c>
+      <c r="M12">
+        <v>0.169614</v>
+      </c>
+      <c r="N12">
+        <v>7.840386</v>
+      </c>
+      <c r="O12">
+        <v>1.9600965</v>
+      </c>
+      <c r="P12">
+        <v>5.8802895</v>
+      </c>
+      <c r="Q12">
+        <v>10.6702895</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.08480004690401068</v>
+      </c>
+      <c r="T12">
+        <v>0.7512637176643354</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.25</v>
+      </c>
+      <c r="W12">
+        <v>0.01215</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>47.22487530510453</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07738931133613883</v>
+      </c>
+      <c r="C13">
+        <v>111.6503286733971</v>
+      </c>
+      <c r="D13">
+        <v>98.06732867339711</v>
+      </c>
+      <c r="E13">
+        <v>-34.583</v>
+      </c>
+      <c r="F13">
+        <v>11.517</v>
+      </c>
+      <c r="G13">
+        <v>25.1</v>
+      </c>
+      <c r="H13">
+        <v>58.6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12.8</v>
+      </c>
+      <c r="K13">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L13">
+        <v>8.01</v>
+      </c>
+      <c r="M13">
+        <v>0.1865754</v>
+      </c>
+      <c r="N13">
+        <v>7.8234246</v>
+      </c>
+      <c r="O13">
+        <v>1.95585615</v>
+      </c>
+      <c r="P13">
+        <v>5.86756845</v>
+      </c>
+      <c r="Q13">
+        <v>10.65756845</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.08545259700689756</v>
+      </c>
+      <c r="T13">
+        <v>0.7577569217928086</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.25</v>
+      </c>
+      <c r="W13">
+        <v>0.01215</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>42.9317048228223</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07724358045866803</v>
+      </c>
+      <c r="C14">
+        <v>110.8136713983803</v>
+      </c>
+      <c r="D14">
+        <v>98.27767139838032</v>
+      </c>
+      <c r="E14">
+        <v>-33.536</v>
+      </c>
+      <c r="F14">
+        <v>12.564</v>
+      </c>
+      <c r="G14">
+        <v>25.1</v>
+      </c>
+      <c r="H14">
+        <v>58.6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>12.8</v>
+      </c>
+      <c r="K14">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L14">
+        <v>8.01</v>
+      </c>
+      <c r="M14">
+        <v>0.2035368</v>
+      </c>
+      <c r="N14">
+        <v>7.8064632</v>
+      </c>
+      <c r="O14">
+        <v>1.9516158</v>
+      </c>
+      <c r="P14">
+        <v>5.8548474</v>
+      </c>
+      <c r="Q14">
+        <v>10.6448474</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.08611997779394094</v>
+      </c>
+      <c r="T14">
+        <v>0.7643976987423833</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.25</v>
+      </c>
+      <c r="W14">
+        <v>0.01215</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>39.35406275425377</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07709784958119723</v>
+      </c>
+      <c r="C15">
+        <v>109.977918383014</v>
+      </c>
+      <c r="D15">
+        <v>98.48891838301397</v>
+      </c>
+      <c r="E15">
+        <v>-32.489</v>
+      </c>
+      <c r="F15">
+        <v>13.611</v>
+      </c>
+      <c r="G15">
+        <v>25.1</v>
+      </c>
+      <c r="H15">
+        <v>58.6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>12.8</v>
+      </c>
+      <c r="K15">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L15">
+        <v>8.01</v>
+      </c>
+      <c r="M15">
+        <v>0.2204982</v>
+      </c>
+      <c r="N15">
+        <v>7.7895018</v>
+      </c>
+      <c r="O15">
+        <v>1.94737545</v>
+      </c>
+      <c r="P15">
+        <v>5.84212635</v>
+      </c>
+      <c r="Q15">
+        <v>10.63212635</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0868027006680428</v>
+      </c>
+      <c r="T15">
+        <v>0.7711911372310287</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.25</v>
+      </c>
+      <c r="W15">
+        <v>0.01215</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>36.32682715777272</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07695211870372642</v>
+      </c>
+      <c r="C16">
+        <v>109.1430754709533</v>
+      </c>
+      <c r="D16">
+        <v>98.70107547095326</v>
+      </c>
+      <c r="E16">
+        <v>-31.442</v>
+      </c>
+      <c r="F16">
+        <v>14.658</v>
+      </c>
+      <c r="G16">
+        <v>25.1</v>
+      </c>
+      <c r="H16">
+        <v>58.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>12.8</v>
+      </c>
+      <c r="K16">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L16">
+        <v>8.01</v>
+      </c>
+      <c r="M16">
+        <v>0.2374596</v>
+      </c>
+      <c r="N16">
+        <v>7.7725404</v>
+      </c>
+      <c r="O16">
+        <v>1.9431351</v>
+      </c>
+      <c r="P16">
+        <v>5.829405299999999</v>
+      </c>
+      <c r="Q16">
+        <v>10.6194053</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08750130081828655</v>
+      </c>
+      <c r="T16">
+        <v>0.7781425626612706</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.25</v>
+      </c>
+      <c r="W16">
+        <v>0.01215</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>33.73205378936038</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07680638782625565</v>
+      </c>
+      <c r="C17">
+        <v>108.3091485563139</v>
+      </c>
+      <c r="D17">
+        <v>98.91414855631389</v>
+      </c>
+      <c r="E17">
+        <v>-30.395</v>
+      </c>
+      <c r="F17">
+        <v>15.705</v>
+      </c>
+      <c r="G17">
+        <v>25.1</v>
+      </c>
+      <c r="H17">
+        <v>58.6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>12.8</v>
+      </c>
+      <c r="K17">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L17">
+        <v>8.01</v>
+      </c>
+      <c r="M17">
+        <v>0.254421</v>
+      </c>
+      <c r="N17">
+        <v>7.755579</v>
+      </c>
+      <c r="O17">
+        <v>1.93889475</v>
+      </c>
+      <c r="P17">
+        <v>5.81668425</v>
+      </c>
+      <c r="Q17">
+        <v>10.60668425</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08821633861912428</v>
+      </c>
+      <c r="T17">
+        <v>0.7852575510428121</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.25</v>
+      </c>
+      <c r="W17">
+        <v>0.01215</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>31.48325020340302</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07666065694878484</v>
+      </c>
+      <c r="C18">
+        <v>107.4761435842179</v>
+      </c>
+      <c r="D18">
+        <v>99.12814358421792</v>
+      </c>
+      <c r="E18">
+        <v>-29.348</v>
+      </c>
+      <c r="F18">
+        <v>16.752</v>
+      </c>
+      <c r="G18">
+        <v>25.1</v>
+      </c>
+      <c r="H18">
+        <v>58.6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>12.8</v>
+      </c>
+      <c r="K18">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L18">
+        <v>8.01</v>
+      </c>
+      <c r="M18">
+        <v>0.2713824</v>
+      </c>
+      <c r="N18">
+        <v>7.7386176</v>
+      </c>
+      <c r="O18">
+        <v>1.9346544</v>
+      </c>
+      <c r="P18">
+        <v>5.8039632</v>
+      </c>
+      <c r="Q18">
+        <v>10.5939632</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08894840112950576</v>
+      </c>
+      <c r="T18">
+        <v>0.7925419439096286</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.25</v>
+      </c>
+      <c r="W18">
+        <v>0.01215</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>29.51554706569033</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07651492607131405</v>
+      </c>
+      <c r="C19">
+        <v>106.6440665513466</v>
+      </c>
+      <c r="D19">
+        <v>99.34306655134655</v>
+      </c>
+      <c r="E19">
+        <v>-28.301</v>
+      </c>
+      <c r="F19">
+        <v>17.799</v>
+      </c>
+      <c r="G19">
+        <v>25.1</v>
+      </c>
+      <c r="H19">
+        <v>58.6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>12.8</v>
+      </c>
+      <c r="K19">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L19">
+        <v>8.01</v>
+      </c>
+      <c r="M19">
+        <v>0.2883438</v>
+      </c>
+      <c r="N19">
+        <v>7.7216562</v>
+      </c>
+      <c r="O19">
+        <v>1.93041405</v>
+      </c>
+      <c r="P19">
+        <v>5.79124215</v>
+      </c>
+      <c r="Q19">
+        <v>10.58124215</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08969810370037838</v>
+      </c>
+      <c r="T19">
+        <v>0.8000018643154045</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.25</v>
+      </c>
+      <c r="W19">
+        <v>0.01215</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>27.77933841476737</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07636919519384326</v>
+      </c>
+      <c r="C20">
+        <v>105.8129235065005</v>
+      </c>
+      <c r="D20">
+        <v>99.55892350650048</v>
+      </c>
+      <c r="E20">
+        <v>-27.254</v>
+      </c>
+      <c r="F20">
+        <v>18.846</v>
+      </c>
+      <c r="G20">
+        <v>25.1</v>
+      </c>
+      <c r="H20">
+        <v>58.6</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>12.8</v>
+      </c>
+      <c r="K20">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L20">
+        <v>8.01</v>
+      </c>
+      <c r="M20">
+        <v>0.3053052</v>
+      </c>
+      <c r="N20">
+        <v>7.7046948</v>
+      </c>
+      <c r="O20">
+        <v>1.9261737</v>
+      </c>
+      <c r="P20">
+        <v>5.7785211</v>
+      </c>
+      <c r="Q20">
+        <v>10.5685211</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.09046609169980885</v>
+      </c>
+      <c r="T20">
+        <v>0.80764373399937</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.25</v>
+      </c>
+      <c r="W20">
+        <v>0.01215</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>26.23604183616918</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07622346431637249</v>
+      </c>
+      <c r="C21">
+        <v>104.9827205511672</v>
+      </c>
+      <c r="D21">
+        <v>99.7757205511672</v>
+      </c>
+      <c r="E21">
+        <v>-26.207</v>
+      </c>
+      <c r="F21">
+        <v>19.893</v>
+      </c>
+      <c r="G21">
+        <v>25.1</v>
+      </c>
+      <c r="H21">
+        <v>58.6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>12.8</v>
+      </c>
+      <c r="K21">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L21">
+        <v>8.01</v>
+      </c>
+      <c r="M21">
+        <v>0.3222666</v>
+      </c>
+      <c r="N21">
+        <v>7.6877334</v>
+      </c>
+      <c r="O21">
+        <v>1.92193335</v>
+      </c>
+      <c r="P21">
+        <v>5.76580005</v>
+      </c>
+      <c r="Q21">
+        <v>10.55580005</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.09125304236589195</v>
+      </c>
+      <c r="T21">
+        <v>0.8154742918236805</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.25</v>
+      </c>
+      <c r="W21">
+        <v>0.01215</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>24.85519752900239</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07607773343890167</v>
+      </c>
+      <c r="C22">
+        <v>104.1534638400961</v>
+      </c>
+      <c r="D22">
+        <v>99.9934638400961</v>
+      </c>
+      <c r="E22">
+        <v>-25.16</v>
+      </c>
+      <c r="F22">
+        <v>20.94</v>
+      </c>
+      <c r="G22">
+        <v>25.1</v>
+      </c>
+      <c r="H22">
+        <v>58.6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>12.8</v>
+      </c>
+      <c r="K22">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L22">
+        <v>8.01</v>
+      </c>
+      <c r="M22">
+        <v>0.339228</v>
+      </c>
+      <c r="N22">
+        <v>7.670771999999999</v>
+      </c>
+      <c r="O22">
+        <v>1.917693</v>
+      </c>
+      <c r="P22">
+        <v>5.753079</v>
+      </c>
+      <c r="Q22">
+        <v>10.543079</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.09205966679862709</v>
+      </c>
+      <c r="T22">
+        <v>0.8235006135935985</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.25</v>
+      </c>
+      <c r="W22">
+        <v>0.01215</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>23.61243765255226</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07593200256143087</v>
+      </c>
+      <c r="C23">
+        <v>103.3251595818807</v>
+      </c>
+      <c r="D23">
+        <v>100.2121595818807</v>
+      </c>
+      <c r="E23">
+        <v>-24.113</v>
+      </c>
+      <c r="F23">
+        <v>21.987</v>
+      </c>
+      <c r="G23">
+        <v>25.1</v>
+      </c>
+      <c r="H23">
+        <v>58.6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>12.8</v>
+      </c>
+      <c r="K23">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L23">
+        <v>8.01</v>
+      </c>
+      <c r="M23">
+        <v>0.3561893999999999</v>
+      </c>
+      <c r="N23">
+        <v>7.6538106</v>
+      </c>
+      <c r="O23">
+        <v>1.91345265</v>
+      </c>
+      <c r="P23">
+        <v>5.74035795</v>
+      </c>
+      <c r="Q23">
+        <v>10.53035795</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09288671210307706</v>
+      </c>
+      <c r="T23">
+        <v>0.8317301333830082</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.25</v>
+      </c>
+      <c r="W23">
+        <v>0.01215</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>22.48803585957359</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07578627168396007</v>
+      </c>
+      <c r="C24">
+        <v>102.4978140395487</v>
+      </c>
+      <c r="D24">
+        <v>100.4318140395487</v>
+      </c>
+      <c r="E24">
+        <v>-23.066</v>
+      </c>
+      <c r="F24">
+        <v>23.034</v>
+      </c>
+      <c r="G24">
+        <v>25.1</v>
+      </c>
+      <c r="H24">
+        <v>58.6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>12.8</v>
+      </c>
+      <c r="K24">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L24">
+        <v>8.01</v>
+      </c>
+      <c r="M24">
+        <v>0.3731508</v>
+      </c>
+      <c r="N24">
+        <v>7.636849199999999</v>
+      </c>
+      <c r="O24">
+        <v>1.9092123</v>
+      </c>
+      <c r="P24">
+        <v>5.727636899999999</v>
+      </c>
+      <c r="Q24">
+        <v>10.5176369</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.09373496369738471</v>
+      </c>
+      <c r="T24">
+        <v>0.8401706665003514</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.25</v>
+      </c>
+      <c r="W24">
+        <v>0.01215</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>21.46585241141115</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.0756405408064893</v>
+      </c>
+      <c r="C25">
+        <v>101.6714335311603</v>
+      </c>
+      <c r="D25">
+        <v>100.6524335311603</v>
+      </c>
+      <c r="E25">
+        <v>-22.019</v>
+      </c>
+      <c r="F25">
+        <v>24.081</v>
+      </c>
+      <c r="G25">
+        <v>25.1</v>
+      </c>
+      <c r="H25">
+        <v>58.6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>12.8</v>
+      </c>
+      <c r="K25">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L25">
+        <v>8.01</v>
+      </c>
+      <c r="M25">
+        <v>0.3901122</v>
+      </c>
+      <c r="N25">
+        <v>7.6198878</v>
+      </c>
+      <c r="O25">
+        <v>1.90497195</v>
+      </c>
+      <c r="P25">
+        <v>5.71491585</v>
+      </c>
+      <c r="Q25">
+        <v>10.50491585</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.09460524780063544</v>
+      </c>
+      <c r="T25">
+        <v>0.8488304342441193</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.25</v>
+      </c>
+      <c r="W25">
+        <v>0.01215</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>20.53255448048023</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.0754948099290185</v>
+      </c>
+      <c r="C26">
+        <v>100.8460244304135</v>
+      </c>
+      <c r="D26">
+        <v>100.8740244304135</v>
+      </c>
+      <c r="E26">
+        <v>-20.972</v>
+      </c>
+      <c r="F26">
+        <v>25.128</v>
+      </c>
+      <c r="G26">
+        <v>25.1</v>
+      </c>
+      <c r="H26">
+        <v>58.6</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>12.8</v>
+      </c>
+      <c r="K26">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L26">
+        <v>8.01</v>
+      </c>
+      <c r="M26">
+        <v>0.4070736</v>
+      </c>
+      <c r="N26">
+        <v>7.602926399999999</v>
+      </c>
+      <c r="O26">
+        <v>1.9007316</v>
+      </c>
+      <c r="P26">
+        <v>5.702194799999999</v>
+      </c>
+      <c r="Q26">
+        <v>10.4921948</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.0954984341171296</v>
+      </c>
+      <c r="T26">
+        <v>0.8577180906127231</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.25</v>
+      </c>
+      <c r="W26">
+        <v>0.01215</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>19.67703137712689</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0753490790515477</v>
+      </c>
+      <c r="C27">
+        <v>100.0215931672582</v>
+      </c>
+      <c r="D27">
+        <v>101.0965931672581</v>
+      </c>
+      <c r="E27">
+        <v>-19.925</v>
+      </c>
+      <c r="F27">
+        <v>26.175</v>
+      </c>
+      <c r="G27">
+        <v>25.1</v>
+      </c>
+      <c r="H27">
+        <v>58.6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>12.8</v>
+      </c>
+      <c r="K27">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L27">
+        <v>8.01</v>
+      </c>
+      <c r="M27">
+        <v>0.424035</v>
+      </c>
+      <c r="N27">
+        <v>7.585965</v>
+      </c>
+      <c r="O27">
+        <v>1.89649125</v>
+      </c>
+      <c r="P27">
+        <v>5.689473749999999</v>
+      </c>
+      <c r="Q27">
+        <v>10.47947375</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09641543873539693</v>
+      </c>
+      <c r="T27">
+        <v>0.8668427511511563</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.25</v>
+      </c>
+      <c r="W27">
+        <v>0.01215</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>18.88995012204181</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.07520334817407689</v>
+      </c>
+      <c r="C28">
+        <v>99.19814622851777</v>
+      </c>
+      <c r="D28">
+        <v>101.3201462285178</v>
+      </c>
+      <c r="E28">
+        <v>-18.878</v>
+      </c>
+      <c r="F28">
+        <v>27.222</v>
+      </c>
+      <c r="G28">
+        <v>25.1</v>
+      </c>
+      <c r="H28">
+        <v>58.6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>12.8</v>
+      </c>
+      <c r="K28">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L28">
+        <v>8.01</v>
+      </c>
+      <c r="M28">
+        <v>0.4409964</v>
+      </c>
+      <c r="N28">
+        <v>7.569003599999999</v>
+      </c>
+      <c r="O28">
+        <v>1.8922509</v>
+      </c>
+      <c r="P28">
+        <v>5.6767527</v>
+      </c>
+      <c r="Q28">
+        <v>10.4667527</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09735722726226609</v>
+      </c>
+      <c r="T28">
+        <v>0.8762140241365742</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.25</v>
+      </c>
+      <c r="W28">
+        <v>0.01215</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>18.16341357888636</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.07505761729660612</v>
+      </c>
+      <c r="C29">
+        <v>98.3756901585198</v>
+      </c>
+      <c r="D29">
+        <v>101.5446901585198</v>
+      </c>
+      <c r="E29">
+        <v>-17.831</v>
+      </c>
+      <c r="F29">
+        <v>28.269</v>
+      </c>
+      <c r="G29">
+        <v>25.1</v>
+      </c>
+      <c r="H29">
+        <v>58.6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>12.8</v>
+      </c>
+      <c r="K29">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L29">
+        <v>8.01</v>
+      </c>
+      <c r="M29">
+        <v>0.4579578</v>
+      </c>
+      <c r="N29">
+        <v>7.5520422</v>
+      </c>
+      <c r="O29">
+        <v>1.88801055</v>
+      </c>
+      <c r="P29">
+        <v>5.66403165</v>
+      </c>
+      <c r="Q29">
+        <v>10.45403165</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09832481821452893</v>
+      </c>
+      <c r="T29">
+        <v>0.8858420443270721</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.25</v>
+      </c>
+      <c r="W29">
+        <v>0.01215</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>17.49069455744612</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07491188641913532</v>
+      </c>
+      <c r="C30">
+        <v>97.55423155973435</v>
+      </c>
+      <c r="D30">
+        <v>101.7702315597343</v>
+      </c>
+      <c r="E30">
+        <v>-16.784</v>
+      </c>
+      <c r="F30">
+        <v>29.316</v>
+      </c>
+      <c r="G30">
+        <v>25.1</v>
+      </c>
+      <c r="H30">
+        <v>58.6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>12.8</v>
+      </c>
+      <c r="K30">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L30">
+        <v>8.01</v>
+      </c>
+      <c r="M30">
+        <v>0.4749192</v>
+      </c>
+      <c r="N30">
+        <v>7.535080799999999</v>
+      </c>
+      <c r="O30">
+        <v>1.8837702</v>
+      </c>
+      <c r="P30">
+        <v>5.6513106</v>
+      </c>
+      <c r="Q30">
+        <v>10.4413106</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09931928669324351</v>
+      </c>
+      <c r="T30">
+        <v>0.8957375095228616</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.25</v>
+      </c>
+      <c r="W30">
+        <v>0.01215</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>16.86602689468019</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07476615554166452</v>
+      </c>
+      <c r="C31">
+        <v>96.73377709342108</v>
+      </c>
+      <c r="D31">
+        <v>101.9967770934211</v>
+      </c>
+      <c r="E31">
+        <v>-15.737</v>
+      </c>
+      <c r="F31">
+        <v>30.363</v>
+      </c>
+      <c r="G31">
+        <v>25.1</v>
+      </c>
+      <c r="H31">
+        <v>58.6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12.8</v>
+      </c>
+      <c r="K31">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L31">
+        <v>8.01</v>
+      </c>
+      <c r="M31">
+        <v>0.4918805999999999</v>
+      </c>
+      <c r="N31">
+        <v>7.5181194</v>
+      </c>
+      <c r="O31">
+        <v>1.87952985</v>
+      </c>
+      <c r="P31">
+        <v>5.63858955</v>
+      </c>
+      <c r="Q31">
+        <v>10.42858955</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1003417683685416</v>
+      </c>
+      <c r="T31">
+        <v>0.9059117202171239</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.25</v>
+      </c>
+      <c r="W31">
+        <v>0.01215</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>16.28443976038087</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.07462042466419373</v>
+      </c>
+      <c r="C32">
+        <v>95.91433348028528</v>
+      </c>
+      <c r="D32">
+        <v>102.2243334802853</v>
+      </c>
+      <c r="E32">
+        <v>-14.69</v>
+      </c>
+      <c r="F32">
+        <v>31.41</v>
+      </c>
+      <c r="G32">
+        <v>25.1</v>
+      </c>
+      <c r="H32">
+        <v>58.6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>12.8</v>
+      </c>
+      <c r="K32">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L32">
+        <v>8.01</v>
+      </c>
+      <c r="M32">
+        <v>0.508842</v>
+      </c>
+      <c r="N32">
+        <v>7.501158</v>
+      </c>
+      <c r="O32">
+        <v>1.8752895</v>
+      </c>
+      <c r="P32">
+        <v>5.6258685</v>
+      </c>
+      <c r="Q32">
+        <v>10.4158685</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1013934638059911</v>
+      </c>
+      <c r="T32">
+        <v>0.9163766226455081</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.25</v>
+      </c>
+      <c r="W32">
+        <v>0.01215</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>15.74162510170151</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.07447469378672293</v>
+      </c>
+      <c r="C33">
+        <v>95.09590750114219</v>
+      </c>
+      <c r="D33">
+        <v>102.4529075011422</v>
+      </c>
+      <c r="E33">
+        <v>-13.643</v>
+      </c>
+      <c r="F33">
+        <v>32.457</v>
+      </c>
+      <c r="G33">
+        <v>25.1</v>
+      </c>
+      <c r="H33">
+        <v>58.6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>12.8</v>
+      </c>
+      <c r="K33">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L33">
+        <v>8.01</v>
+      </c>
+      <c r="M33">
+        <v>0.5258034</v>
+      </c>
+      <c r="N33">
+        <v>7.4841966</v>
+      </c>
+      <c r="O33">
+        <v>1.87104915</v>
+      </c>
+      <c r="P33">
+        <v>5.61314745</v>
+      </c>
+      <c r="Q33">
+        <v>10.40314745</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1024756431691637</v>
+      </c>
+      <c r="T33">
+        <v>0.9271448555790628</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.25</v>
+      </c>
+      <c r="W33">
+        <v>0.01215</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>15.23383074358211</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07432896290925214</v>
+      </c>
+      <c r="C34">
+        <v>94.27850599759076</v>
+      </c>
+      <c r="D34">
+        <v>102.6825059975908</v>
+      </c>
+      <c r="E34">
+        <v>-12.596</v>
+      </c>
+      <c r="F34">
+        <v>33.504</v>
+      </c>
+      <c r="G34">
+        <v>25.1</v>
+      </c>
+      <c r="H34">
+        <v>58.6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>12.8</v>
+      </c>
+      <c r="K34">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L34">
+        <v>8.01</v>
+      </c>
+      <c r="M34">
+        <v>0.5427648</v>
+      </c>
+      <c r="N34">
+        <v>7.467235199999999</v>
+      </c>
+      <c r="O34">
+        <v>1.8668088</v>
+      </c>
+      <c r="P34">
+        <v>5.6004264</v>
+      </c>
+      <c r="Q34">
+        <v>10.3904264</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1035896513371355</v>
+      </c>
+      <c r="T34">
+        <v>0.9382298012459575</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.25</v>
+      </c>
+      <c r="W34">
+        <v>0.01215</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>14.75777353284516</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.07418323203178134</v>
+      </c>
+      <c r="C35">
+        <v>93.46213587269624</v>
+      </c>
+      <c r="D35">
+        <v>102.9131358726962</v>
+      </c>
+      <c r="E35">
+        <v>-11.549</v>
+      </c>
+      <c r="F35">
+        <v>34.551</v>
+      </c>
+      <c r="G35">
+        <v>25.1</v>
+      </c>
+      <c r="H35">
+        <v>58.6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>12.8</v>
+      </c>
+      <c r="K35">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L35">
+        <v>8.01</v>
+      </c>
+      <c r="M35">
+        <v>0.5597262</v>
+      </c>
+      <c r="N35">
+        <v>7.4502738</v>
+      </c>
+      <c r="O35">
+        <v>1.86256845</v>
+      </c>
+      <c r="P35">
+        <v>5.58770535</v>
+      </c>
+      <c r="Q35">
+        <v>10.37770535</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1047369134802707</v>
+      </c>
+      <c r="T35">
+        <v>0.9496456408133563</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.25</v>
+      </c>
+      <c r="W35">
+        <v>0.01215</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>14.3105682742741</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.07403750115431054</v>
+      </c>
+      <c r="C36">
+        <v>92.64680409168187</v>
+      </c>
+      <c r="D36">
+        <v>103.1448040916819</v>
+      </c>
+      <c r="E36">
+        <v>-10.502</v>
+      </c>
+      <c r="F36">
+        <v>35.59800000000001</v>
+      </c>
+      <c r="G36">
+        <v>25.1</v>
+      </c>
+      <c r="H36">
+        <v>58.6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>12.8</v>
+      </c>
+      <c r="K36">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L36">
+        <v>8.01</v>
+      </c>
+      <c r="M36">
+        <v>0.5766876000000001</v>
+      </c>
+      <c r="N36">
+        <v>7.4333124</v>
+      </c>
+      <c r="O36">
+        <v>1.8583281</v>
+      </c>
+      <c r="P36">
+        <v>5.574984300000001</v>
+      </c>
+      <c r="Q36">
+        <v>10.3649843</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1059189411428948</v>
+      </c>
+      <c r="T36">
+        <v>0.9614074149131007</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.25</v>
+      </c>
+      <c r="W36">
+        <v>0.01215</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>13.88966920738368</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.07431177027683976</v>
+      </c>
+      <c r="C37">
+        <v>91.16466081237706</v>
+      </c>
+      <c r="D37">
+        <v>102.7096608123771</v>
+      </c>
+      <c r="E37">
+        <v>-9.454999999999998</v>
+      </c>
+      <c r="F37">
+        <v>36.645</v>
+      </c>
+      <c r="G37">
+        <v>25.1</v>
+      </c>
+      <c r="H37">
+        <v>58.6</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>12.8</v>
+      </c>
+      <c r="K37">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L37">
+        <v>8.01</v>
+      </c>
+      <c r="M37">
+        <v>0.652281</v>
+      </c>
+      <c r="N37">
+        <v>7.357718999999999</v>
+      </c>
+      <c r="O37">
+        <v>1.83942975</v>
+      </c>
+      <c r="P37">
+        <v>5.51828925</v>
+      </c>
+      <c r="Q37">
+        <v>10.30828925</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1071373388874458</v>
+      </c>
+      <c r="T37">
+        <v>0.9735310897543756</v>
+      </c>
+      <c r="U37">
+        <v>0.0178</v>
+      </c>
+      <c r="V37">
+        <v>0.25</v>
+      </c>
+      <c r="W37">
+        <v>0.01335</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>12.2799836266885</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.07417803939936897</v>
+      </c>
+      <c r="C38">
+        <v>90.32937271354314</v>
+      </c>
+      <c r="D38">
+        <v>102.9213727135431</v>
+      </c>
+      <c r="E38">
+        <v>-8.408000000000001</v>
+      </c>
+      <c r="F38">
+        <v>37.692</v>
+      </c>
+      <c r="G38">
+        <v>25.1</v>
+      </c>
+      <c r="H38">
+        <v>58.6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>12.8</v>
+      </c>
+      <c r="K38">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L38">
+        <v>8.01</v>
+      </c>
+      <c r="M38">
+        <v>0.6709176</v>
+      </c>
+      <c r="N38">
+        <v>7.3390824</v>
+      </c>
+      <c r="O38">
+        <v>1.8347706</v>
+      </c>
+      <c r="P38">
+        <v>5.5043118</v>
+      </c>
+      <c r="Q38">
+        <v>10.2943118</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.108393811561514</v>
+      </c>
+      <c r="T38">
+        <v>0.9860336294344403</v>
+      </c>
+      <c r="U38">
+        <v>0.0178</v>
+      </c>
+      <c r="V38">
+        <v>0.25</v>
+      </c>
+      <c r="W38">
+        <v>0.01335</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>11.93887297039159</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.07404430852189818</v>
+      </c>
+      <c r="C39">
+        <v>89.49495920643656</v>
+      </c>
+      <c r="D39">
+        <v>103.1339592064366</v>
+      </c>
+      <c r="E39">
+        <v>-7.361000000000004</v>
+      </c>
+      <c r="F39">
+        <v>38.739</v>
+      </c>
+      <c r="G39">
+        <v>25.1</v>
+      </c>
+      <c r="H39">
+        <v>58.6</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>12.8</v>
+      </c>
+      <c r="K39">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L39">
+        <v>8.01</v>
+      </c>
+      <c r="M39">
+        <v>0.6895541999999999</v>
+      </c>
+      <c r="N39">
+        <v>7.3204458</v>
+      </c>
+      <c r="O39">
+        <v>1.83011145</v>
+      </c>
+      <c r="P39">
+        <v>5.490334349999999</v>
+      </c>
+      <c r="Q39">
+        <v>10.28033435</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1096901722569812</v>
+      </c>
+      <c r="T39">
+        <v>0.9989330751360944</v>
+      </c>
+      <c r="U39">
+        <v>0.0178</v>
+      </c>
+      <c r="V39">
+        <v>0.25</v>
+      </c>
+      <c r="W39">
+        <v>0.01335</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>11.61620072794858</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07391057764442738</v>
+      </c>
+      <c r="C40">
+        <v>88.66142572174337</v>
+      </c>
+      <c r="D40">
+        <v>103.3474257217434</v>
+      </c>
+      <c r="E40">
+        <v>-6.314</v>
+      </c>
+      <c r="F40">
+        <v>39.786</v>
+      </c>
+      <c r="G40">
+        <v>25.1</v>
+      </c>
+      <c r="H40">
+        <v>58.6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>12.8</v>
+      </c>
+      <c r="K40">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L40">
+        <v>8.01</v>
+      </c>
+      <c r="M40">
+        <v>0.7081908</v>
+      </c>
+      <c r="N40">
+        <v>7.3018092</v>
+      </c>
+      <c r="O40">
+        <v>1.8254523</v>
+      </c>
+      <c r="P40">
+        <v>5.4763569</v>
+      </c>
+      <c r="Q40">
+        <v>10.2663569</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.111028351039399</v>
+      </c>
+      <c r="T40">
+        <v>1.012248631989415</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.25</v>
+      </c>
+      <c r="W40">
+        <v>0.01335</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>11.31051123510783</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07377684676695657</v>
+      </c>
+      <c r="C41">
+        <v>87.82877773520443</v>
+      </c>
+      <c r="D41">
+        <v>103.5617777352044</v>
+      </c>
+      <c r="E41">
+        <v>-5.266999999999996</v>
+      </c>
+      <c r="F41">
+        <v>40.83300000000001</v>
+      </c>
+      <c r="G41">
+        <v>25.1</v>
+      </c>
+      <c r="H41">
+        <v>58.6</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>12.8</v>
+      </c>
+      <c r="K41">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L41">
+        <v>8.01</v>
+      </c>
+      <c r="M41">
+        <v>0.7268274000000001</v>
+      </c>
+      <c r="N41">
+        <v>7.283172599999999</v>
+      </c>
+      <c r="O41">
+        <v>1.82079315</v>
+      </c>
+      <c r="P41">
+        <v>5.462379449999999</v>
+      </c>
+      <c r="Q41">
+        <v>10.25237945</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1124104045359944</v>
+      </c>
+      <c r="T41">
+        <v>1.02600076447727</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.25</v>
+      </c>
+      <c r="W41">
+        <v>0.01335</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>11.02049812651532</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.0736431158894858</v>
+      </c>
+      <c r="C42">
+        <v>86.99702076808381</v>
+      </c>
+      <c r="D42">
+        <v>103.7770207680838</v>
+      </c>
+      <c r="E42">
+        <v>-4.219999999999999</v>
+      </c>
+      <c r="F42">
+        <v>41.88</v>
+      </c>
+      <c r="G42">
+        <v>25.1</v>
+      </c>
+      <c r="H42">
+        <v>58.6</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>12.8</v>
+      </c>
+      <c r="K42">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L42">
+        <v>8.01</v>
+      </c>
+      <c r="M42">
+        <v>0.745464</v>
+      </c>
+      <c r="N42">
+        <v>7.264536</v>
+      </c>
+      <c r="O42">
+        <v>1.816134</v>
+      </c>
+      <c r="P42">
+        <v>5.448402</v>
+      </c>
+      <c r="Q42">
+        <v>10.238402</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1138385264824763</v>
+      </c>
+      <c r="T42">
+        <v>1.040211301381388</v>
+      </c>
+      <c r="U42">
+        <v>0.0178</v>
+      </c>
+      <c r="V42">
+        <v>0.25</v>
+      </c>
+      <c r="W42">
+        <v>0.01335</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>10.74498567335243</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07418588501201501</v>
+      </c>
+      <c r="C43">
+        <v>85.08192807750005</v>
+      </c>
+      <c r="D43">
+        <v>102.9089280775001</v>
+      </c>
+      <c r="E43">
+        <v>-3.172999999999995</v>
+      </c>
+      <c r="F43">
+        <v>42.92700000000001</v>
+      </c>
+      <c r="G43">
+        <v>25.1</v>
+      </c>
+      <c r="H43">
+        <v>58.6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>12.8</v>
+      </c>
+      <c r="K43">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L43">
+        <v>8.01</v>
+      </c>
+      <c r="M43">
+        <v>0.85854</v>
+      </c>
+      <c r="N43">
+        <v>7.15146</v>
+      </c>
+      <c r="O43">
+        <v>1.787865</v>
+      </c>
+      <c r="P43">
+        <v>5.363595</v>
+      </c>
+      <c r="Q43">
+        <v>10.153595</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1153150593423983</v>
+      </c>
+      <c r="T43">
+        <v>1.054903551400899</v>
+      </c>
+      <c r="U43">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0.25</v>
+      </c>
+      <c r="W43">
+        <v>0.015</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>9.32979243832553</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07406865413454422</v>
+      </c>
+      <c r="C44">
+        <v>84.22119262320209</v>
+      </c>
+      <c r="D44">
+        <v>103.0951926232021</v>
+      </c>
+      <c r="E44">
+        <v>-2.126000000000005</v>
+      </c>
+      <c r="F44">
+        <v>43.974</v>
+      </c>
+      <c r="G44">
+        <v>25.1</v>
+      </c>
+      <c r="H44">
+        <v>58.6</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>12.8</v>
+      </c>
+      <c r="K44">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L44">
+        <v>8.01</v>
+      </c>
+      <c r="M44">
+        <v>0.8794799999999998</v>
+      </c>
+      <c r="N44">
+        <v>7.13052</v>
+      </c>
+      <c r="O44">
+        <v>1.78263</v>
+      </c>
+      <c r="P44">
+        <v>5.34789</v>
+      </c>
+      <c r="Q44">
+        <v>10.13789</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1168425071285245</v>
+      </c>
+      <c r="T44">
+        <v>1.070102430731428</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0.25</v>
+      </c>
+      <c r="W44">
+        <v>0.015</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>9.107654523127303</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07395142325707342</v>
+      </c>
+      <c r="C45">
+        <v>83.36113266698398</v>
+      </c>
+      <c r="D45">
+        <v>103.282132666984</v>
+      </c>
+      <c r="E45">
+        <v>-1.079000000000001</v>
+      </c>
+      <c r="F45">
+        <v>45.021</v>
+      </c>
+      <c r="G45">
+        <v>25.1</v>
+      </c>
+      <c r="H45">
+        <v>58.6</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>12.8</v>
+      </c>
+      <c r="K45">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L45">
+        <v>8.01</v>
+      </c>
+      <c r="M45">
+        <v>0.9004199999999999</v>
+      </c>
+      <c r="N45">
+        <v>7.10958</v>
+      </c>
+      <c r="O45">
+        <v>1.777395</v>
+      </c>
+      <c r="P45">
+        <v>5.332185</v>
+      </c>
+      <c r="Q45">
+        <v>10.122185</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.118423549573813</v>
+      </c>
+      <c r="T45">
+        <v>1.085834604073554</v>
+      </c>
+      <c r="U45">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0.25</v>
+      </c>
+      <c r="W45">
+        <v>0.015</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>8.895848603984808</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07383419237960262</v>
+      </c>
+      <c r="C46">
+        <v>82.50175189011435</v>
+      </c>
+      <c r="D46">
+        <v>103.4697518901144</v>
+      </c>
+      <c r="E46">
+        <v>-0.03199999999999648</v>
+      </c>
+      <c r="F46">
+        <v>46.068</v>
+      </c>
+      <c r="G46">
+        <v>25.1</v>
+      </c>
+      <c r="H46">
+        <v>58.6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>12.8</v>
+      </c>
+      <c r="K46">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L46">
+        <v>8.01</v>
+      </c>
+      <c r="M46">
+        <v>0.92136</v>
+      </c>
+      <c r="N46">
+        <v>7.08864</v>
+      </c>
+      <c r="O46">
+        <v>1.77216</v>
+      </c>
+      <c r="P46">
+        <v>5.31648</v>
+      </c>
+      <c r="Q46">
+        <v>10.10648</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.120061057820719</v>
+      </c>
+      <c r="T46">
+        <v>1.102128640749327</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.25</v>
+      </c>
+      <c r="W46">
+        <v>0.015</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>8.693670226621517</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.07371696150213181</v>
+      </c>
+      <c r="C47">
+        <v>81.64305400065962</v>
+      </c>
+      <c r="D47">
+        <v>103.6580540006596</v>
+      </c>
+      <c r="E47">
+        <v>1.015000000000001</v>
+      </c>
+      <c r="F47">
+        <v>47.115</v>
+      </c>
+      <c r="G47">
+        <v>25.1</v>
+      </c>
+      <c r="H47">
+        <v>58.6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>12.8</v>
+      </c>
+      <c r="K47">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L47">
+        <v>8.01</v>
+      </c>
+      <c r="M47">
+        <v>0.9422999999999999</v>
+      </c>
+      <c r="N47">
+        <v>7.0677</v>
+      </c>
+      <c r="O47">
+        <v>1.766925</v>
+      </c>
+      <c r="P47">
+        <v>5.300775</v>
+      </c>
+      <c r="Q47">
+        <v>10.090775</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1217581118220578</v>
+      </c>
+      <c r="T47">
+        <v>1.119015187849674</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.25</v>
+      </c>
+      <c r="W47">
+        <v>0.015</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>8.500477554918817</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07359973062466105</v>
+      </c>
+      <c r="C48">
+        <v>80.78504273372823</v>
+      </c>
+      <c r="D48">
+        <v>103.8470427337282</v>
+      </c>
+      <c r="E48">
+        <v>2.062000000000005</v>
+      </c>
+      <c r="F48">
+        <v>48.16200000000001</v>
+      </c>
+      <c r="G48">
+        <v>25.1</v>
+      </c>
+      <c r="H48">
+        <v>58.6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>12.8</v>
+      </c>
+      <c r="K48">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L48">
+        <v>8.01</v>
+      </c>
+      <c r="M48">
+        <v>0.96324</v>
+      </c>
+      <c r="N48">
+        <v>7.04676</v>
+      </c>
+      <c r="O48">
+        <v>1.76169</v>
+      </c>
+      <c r="P48">
+        <v>5.28507</v>
+      </c>
+      <c r="Q48">
+        <v>10.07507</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1235180196752982</v>
+      </c>
+      <c r="T48">
+        <v>1.136527162620405</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.25</v>
+      </c>
+      <c r="W48">
+        <v>0.015</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>8.315684564594495</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.07348249974719023</v>
+      </c>
+      <c r="C49">
+        <v>79.92772185171799</v>
+      </c>
+      <c r="D49">
+        <v>104.036721851718</v>
+      </c>
+      <c r="E49">
+        <v>3.109000000000002</v>
+      </c>
+      <c r="F49">
+        <v>49.209</v>
+      </c>
+      <c r="G49">
+        <v>25.1</v>
+      </c>
+      <c r="H49">
+        <v>58.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>12.8</v>
+      </c>
+      <c r="K49">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L49">
+        <v>8.01</v>
+      </c>
+      <c r="M49">
+        <v>0.9841799999999999</v>
+      </c>
+      <c r="N49">
+        <v>7.02582</v>
+      </c>
+      <c r="O49">
+        <v>1.756455</v>
+      </c>
+      <c r="P49">
+        <v>5.269365</v>
+      </c>
+      <c r="Q49">
+        <v>10.059365</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1253443391456419</v>
+      </c>
+      <c r="T49">
+        <v>1.154699966627767</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.25</v>
+      </c>
+      <c r="W49">
+        <v>0.015</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>8.138755105773335</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.07336526886971943</v>
+      </c>
+      <c r="C50">
+        <v>79.07109514456508</v>
+      </c>
+      <c r="D50">
+        <v>104.2270951445651</v>
+      </c>
+      <c r="E50">
+        <v>4.155999999999999</v>
+      </c>
+      <c r="F50">
+        <v>50.256</v>
+      </c>
+      <c r="G50">
+        <v>25.1</v>
+      </c>
+      <c r="H50">
+        <v>58.6</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>12.8</v>
+      </c>
+      <c r="K50">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L50">
+        <v>8.01</v>
+      </c>
+      <c r="M50">
+        <v>1.00512</v>
+      </c>
+      <c r="N50">
+        <v>7.00488</v>
+      </c>
+      <c r="O50">
+        <v>1.75122</v>
+      </c>
+      <c r="P50">
+        <v>5.25366</v>
+      </c>
+      <c r="Q50">
+        <v>10.04366</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1272409016725374</v>
+      </c>
+      <c r="T50">
+        <v>1.173571724635412</v>
+      </c>
+      <c r="U50">
+        <v>0.02</v>
+      </c>
+      <c r="V50">
+        <v>0.25</v>
+      </c>
+      <c r="W50">
+        <v>0.015</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>7.969197707736391</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.07365228799224866</v>
+      </c>
+      <c r="C51">
+        <v>77.5592294758298</v>
+      </c>
+      <c r="D51">
+        <v>103.7622294758298</v>
+      </c>
+      <c r="E51">
+        <v>5.202999999999996</v>
+      </c>
+      <c r="F51">
+        <v>51.303</v>
+      </c>
+      <c r="G51">
+        <v>25.1</v>
+      </c>
+      <c r="H51">
+        <v>58.6</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>12.8</v>
+      </c>
+      <c r="K51">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L51">
+        <v>8.01</v>
+      </c>
+      <c r="M51">
+        <v>1.0824933</v>
+      </c>
+      <c r="N51">
+        <v>6.9275067</v>
+      </c>
+      <c r="O51">
+        <v>1.731876675</v>
+      </c>
+      <c r="P51">
+        <v>5.195630025</v>
+      </c>
+      <c r="Q51">
+        <v>9.985630025000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1292118392004875</v>
+      </c>
+      <c r="T51">
+        <v>1.193183551584533</v>
+      </c>
+      <c r="U51">
+        <v>0.0211</v>
+      </c>
+      <c r="V51">
+        <v>0.25</v>
+      </c>
+      <c r="W51">
+        <v>0.015825</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>7.39958390504588</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.07354330711477786</v>
+      </c>
+      <c r="C52">
+        <v>76.68824934971951</v>
+      </c>
+      <c r="D52">
+        <v>103.9382493497195</v>
+      </c>
+      <c r="E52">
+        <v>6.25</v>
+      </c>
+      <c r="F52">
+        <v>52.35</v>
+      </c>
+      <c r="G52">
+        <v>25.1</v>
+      </c>
+      <c r="H52">
+        <v>58.6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12.8</v>
+      </c>
+      <c r="K52">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L52">
+        <v>8.01</v>
+      </c>
+      <c r="M52">
+        <v>1.104585</v>
+      </c>
+      <c r="N52">
+        <v>6.905415</v>
+      </c>
+      <c r="O52">
+        <v>1.72635375</v>
+      </c>
+      <c r="P52">
+        <v>5.17906125</v>
+      </c>
+      <c r="Q52">
+        <v>9.969061250000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1312616142295557</v>
+      </c>
+      <c r="T52">
+        <v>1.213579851611619</v>
+      </c>
+      <c r="U52">
+        <v>0.0211</v>
+      </c>
+      <c r="V52">
+        <v>0.25</v>
+      </c>
+      <c r="W52">
+        <v>0.015825</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>7.25159222694496</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.07343432623730706</v>
+      </c>
+      <c r="C53">
+        <v>75.81786743057374</v>
+      </c>
+      <c r="D53">
+        <v>104.1148674305737</v>
+      </c>
+      <c r="E53">
+        <v>7.297000000000004</v>
+      </c>
+      <c r="F53">
+        <v>53.39700000000001</v>
+      </c>
+      <c r="G53">
+        <v>25.1</v>
+      </c>
+      <c r="H53">
+        <v>58.6</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12.8</v>
+      </c>
+      <c r="K53">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L53">
+        <v>8.01</v>
+      </c>
+      <c r="M53">
+        <v>1.1266767</v>
+      </c>
+      <c r="N53">
+        <v>6.8833233</v>
+      </c>
+      <c r="O53">
+        <v>1.720830825</v>
+      </c>
+      <c r="P53">
+        <v>5.162492475</v>
+      </c>
+      <c r="Q53">
+        <v>9.952492475</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1333950535455246</v>
+      </c>
+      <c r="T53">
+        <v>1.234808653680627</v>
+      </c>
+      <c r="U53">
+        <v>0.0211</v>
+      </c>
+      <c r="V53">
+        <v>0.25</v>
+      </c>
+      <c r="W53">
+        <v>0.015825</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>7.109404144063686</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.07332534535983627</v>
+      </c>
+      <c r="C54">
+        <v>74.94808677311015</v>
+      </c>
+      <c r="D54">
+        <v>104.2920867731102</v>
+      </c>
+      <c r="E54">
+        <v>8.344000000000001</v>
+      </c>
+      <c r="F54">
+        <v>54.444</v>
+      </c>
+      <c r="G54">
+        <v>25.1</v>
+      </c>
+      <c r="H54">
+        <v>58.6</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12.8</v>
+      </c>
+      <c r="K54">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L54">
+        <v>8.01</v>
+      </c>
+      <c r="M54">
+        <v>1.1487684</v>
+      </c>
+      <c r="N54">
+        <v>6.8612316</v>
+      </c>
+      <c r="O54">
+        <v>1.7153079</v>
+      </c>
+      <c r="P54">
+        <v>5.1459237</v>
+      </c>
+      <c r="Q54">
+        <v>9.9359237</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1356173861663256</v>
+      </c>
+      <c r="T54">
+        <v>1.256921989169177</v>
+      </c>
+      <c r="U54">
+        <v>0.0211</v>
+      </c>
+      <c r="V54">
+        <v>0.25</v>
+      </c>
+      <c r="W54">
+        <v>0.015825</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>6.972684833600924</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.07321636448236547</v>
+      </c>
+      <c r="C55">
+        <v>74.07891045288045</v>
+      </c>
+      <c r="D55">
+        <v>104.4699104528805</v>
+      </c>
+      <c r="E55">
+        <v>9.391000000000005</v>
+      </c>
+      <c r="F55">
+        <v>55.49100000000001</v>
+      </c>
+      <c r="G55">
+        <v>25.1</v>
+      </c>
+      <c r="H55">
+        <v>58.6</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12.8</v>
+      </c>
+      <c r="K55">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L55">
+        <v>8.01</v>
+      </c>
+      <c r="M55">
+        <v>1.1708601</v>
+      </c>
+      <c r="N55">
+        <v>6.839139899999999</v>
+      </c>
+      <c r="O55">
+        <v>1.709784975</v>
+      </c>
+      <c r="P55">
+        <v>5.129354924999999</v>
+      </c>
+      <c r="Q55">
+        <v>9.919354925</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1379342861326925</v>
+      </c>
+      <c r="T55">
+        <v>1.279976317657239</v>
+      </c>
+      <c r="U55">
+        <v>0.0211</v>
+      </c>
+      <c r="V55">
+        <v>0.25</v>
+      </c>
+      <c r="W55">
+        <v>0.015825</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>6.841124742400905</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.07310738360489467</v>
+      </c>
+      <c r="C56">
+        <v>73.21034156644799</v>
+      </c>
+      <c r="D56">
+        <v>104.648341566448</v>
+      </c>
+      <c r="E56">
+        <v>10.438</v>
+      </c>
+      <c r="F56">
+        <v>56.538</v>
+      </c>
+      <c r="G56">
+        <v>25.1</v>
+      </c>
+      <c r="H56">
+        <v>58.6</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12.8</v>
+      </c>
+      <c r="K56">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L56">
+        <v>8.01</v>
+      </c>
+      <c r="M56">
+        <v>1.1929518</v>
+      </c>
+      <c r="N56">
+        <v>6.817048199999999</v>
+      </c>
+      <c r="O56">
+        <v>1.70426205</v>
+      </c>
+      <c r="P56">
+        <v>5.11278615</v>
+      </c>
+      <c r="Q56">
+        <v>9.902786150000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1403519208802058</v>
+      </c>
+      <c r="T56">
+        <v>1.304033008253479</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.25</v>
+      </c>
+      <c r="W56">
+        <v>0.015825</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>6.71443724717126</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.07299840272742389</v>
+      </c>
+      <c r="C57">
+        <v>72.34238323156751</v>
+      </c>
+      <c r="D57">
+        <v>104.8273832315675</v>
+      </c>
+      <c r="E57">
+        <v>11.48500000000001</v>
+      </c>
+      <c r="F57">
+        <v>57.58500000000001</v>
+      </c>
+      <c r="G57">
+        <v>25.1</v>
+      </c>
+      <c r="H57">
+        <v>58.6</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>12.8</v>
+      </c>
+      <c r="K57">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L57">
+        <v>8.01</v>
+      </c>
+      <c r="M57">
+        <v>1.2150435</v>
+      </c>
+      <c r="N57">
+        <v>6.7949565</v>
+      </c>
+      <c r="O57">
+        <v>1.698739125</v>
+      </c>
+      <c r="P57">
+        <v>5.096217375</v>
+      </c>
+      <c r="Q57">
+        <v>9.886217375000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.142877006060942</v>
+      </c>
+      <c r="T57">
+        <v>1.32915888509844</v>
+      </c>
+      <c r="U57">
+        <v>0.0211</v>
+      </c>
+      <c r="V57">
+        <v>0.25</v>
+      </c>
+      <c r="W57">
+        <v>0.015825</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>6.592356569949963</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.07288942184995309</v>
+      </c>
+      <c r="C58">
+        <v>71.47503858736712</v>
+      </c>
+      <c r="D58">
+        <v>105.0070385873671</v>
+      </c>
+      <c r="E58">
+        <v>12.532</v>
+      </c>
+      <c r="F58">
+        <v>58.63200000000001</v>
+      </c>
+      <c r="G58">
+        <v>25.1</v>
+      </c>
+      <c r="H58">
+        <v>58.6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>12.8</v>
+      </c>
+      <c r="K58">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L58">
+        <v>8.01</v>
+      </c>
+      <c r="M58">
+        <v>1.2371352</v>
+      </c>
+      <c r="N58">
+        <v>6.7728648</v>
+      </c>
+      <c r="O58">
+        <v>1.6932162</v>
+      </c>
+      <c r="P58">
+        <v>5.0796486</v>
+      </c>
+      <c r="Q58">
+        <v>9.869648600000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1455168678408025</v>
+      </c>
+      <c r="T58">
+        <v>1.355426847254535</v>
+      </c>
+      <c r="U58">
+        <v>0.0211</v>
+      </c>
+      <c r="V58">
+        <v>0.25</v>
+      </c>
+      <c r="W58">
+        <v>0.015825</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>6.474635916915143</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.0734216909724823</v>
+      </c>
+      <c r="C59">
+        <v>69.55638340422053</v>
+      </c>
+      <c r="D59">
+        <v>104.1353834042205</v>
+      </c>
+      <c r="E59">
+        <v>13.57900000000001</v>
+      </c>
+      <c r="F59">
+        <v>59.67900000000001</v>
+      </c>
+      <c r="G59">
+        <v>25.1</v>
+      </c>
+      <c r="H59">
+        <v>58.6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>12.8</v>
+      </c>
+      <c r="K59">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L59">
+        <v>8.01</v>
+      </c>
+      <c r="M59">
+        <v>1.3487454</v>
+      </c>
+      <c r="N59">
+        <v>6.661254599999999</v>
+      </c>
+      <c r="O59">
+        <v>1.66531365</v>
+      </c>
+      <c r="P59">
+        <v>4.99594095</v>
+      </c>
+      <c r="Q59">
+        <v>9.785940950000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1482795138894937</v>
+      </c>
+      <c r="T59">
+        <v>1.38291657509231</v>
+      </c>
+      <c r="U59">
+        <v>0.0226</v>
+      </c>
+      <c r="V59">
+        <v>0.25</v>
+      </c>
+      <c r="W59">
+        <v>0.01695</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>5.938852506929773</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.07332396009501152</v>
+      </c>
+      <c r="C60">
+        <v>68.66834330580656</v>
+      </c>
+      <c r="D60">
+        <v>104.2943433058065</v>
+      </c>
+      <c r="E60">
+        <v>14.626</v>
+      </c>
+      <c r="F60">
+        <v>60.726</v>
+      </c>
+      <c r="G60">
+        <v>25.1</v>
+      </c>
+      <c r="H60">
+        <v>58.6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>12.8</v>
+      </c>
+      <c r="K60">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L60">
+        <v>8.01</v>
+      </c>
+      <c r="M60">
+        <v>1.3724076</v>
+      </c>
+      <c r="N60">
+        <v>6.6375924</v>
+      </c>
+      <c r="O60">
+        <v>1.6593981</v>
+      </c>
+      <c r="P60">
+        <v>4.9781943</v>
+      </c>
+      <c r="Q60">
+        <v>9.768194300000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1511737145119322</v>
+      </c>
+      <c r="T60">
+        <v>1.411715337589026</v>
+      </c>
+      <c r="U60">
+        <v>0.0226</v>
+      </c>
+      <c r="V60">
+        <v>0.25</v>
+      </c>
+      <c r="W60">
+        <v>0.01695</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>5.836458498189605</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.07322622921754071</v>
+      </c>
+      <c r="C61">
+        <v>67.78078924546668</v>
+      </c>
+      <c r="D61">
+        <v>104.4537892454667</v>
+      </c>
+      <c r="E61">
+        <v>15.67299999999999</v>
+      </c>
+      <c r="F61">
+        <v>61.773</v>
+      </c>
+      <c r="G61">
+        <v>25.1</v>
+      </c>
+      <c r="H61">
+        <v>58.6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>12.8</v>
+      </c>
+      <c r="K61">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L61">
+        <v>8.01</v>
+      </c>
+      <c r="M61">
+        <v>1.3960698</v>
+      </c>
+      <c r="N61">
+        <v>6.6139302</v>
+      </c>
+      <c r="O61">
+        <v>1.65348255</v>
+      </c>
+      <c r="P61">
+        <v>4.960447650000001</v>
+      </c>
+      <c r="Q61">
+        <v>9.750447650000002</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1542090956525383</v>
+      </c>
+      <c r="T61">
+        <v>1.441918917768509</v>
+      </c>
+      <c r="U61">
+        <v>0.0226</v>
+      </c>
+      <c r="V61">
+        <v>0.25</v>
+      </c>
+      <c r="W61">
+        <v>0.01695</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>5.737535472796561</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.07312849834006992</v>
+      </c>
+      <c r="C62">
+        <v>66.89372345578946</v>
+      </c>
+      <c r="D62">
+        <v>104.6137234557895</v>
+      </c>
+      <c r="E62">
+        <v>16.72</v>
+      </c>
+      <c r="F62">
+        <v>62.82</v>
+      </c>
+      <c r="G62">
+        <v>25.1</v>
+      </c>
+      <c r="H62">
+        <v>58.6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>12.8</v>
+      </c>
+      <c r="K62">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L62">
+        <v>8.01</v>
+      </c>
+      <c r="M62">
+        <v>1.419732</v>
+      </c>
+      <c r="N62">
+        <v>6.590268</v>
+      </c>
+      <c r="O62">
+        <v>1.647567</v>
+      </c>
+      <c r="P62">
+        <v>4.942701</v>
+      </c>
+      <c r="Q62">
+        <v>9.732701</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1573962458501748</v>
+      </c>
+      <c r="T62">
+        <v>1.473632676956966</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.25</v>
+      </c>
+      <c r="W62">
+        <v>0.01695</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>5.641909881583285</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.07303076746259914</v>
+      </c>
+      <c r="C63">
+        <v>66.00714818305829</v>
+      </c>
+      <c r="D63">
+        <v>104.7741481830583</v>
+      </c>
+      <c r="E63">
+        <v>17.767</v>
+      </c>
+      <c r="F63">
+        <v>63.867</v>
+      </c>
+      <c r="G63">
+        <v>25.1</v>
+      </c>
+      <c r="H63">
+        <v>58.6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>12.8</v>
+      </c>
+      <c r="K63">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L63">
+        <v>8.01</v>
+      </c>
+      <c r="M63">
+        <v>1.4433942</v>
+      </c>
+      <c r="N63">
+        <v>6.5666058</v>
+      </c>
+      <c r="O63">
+        <v>1.64165145</v>
+      </c>
+      <c r="P63">
+        <v>4.92495435</v>
+      </c>
+      <c r="Q63">
+        <v>9.714954350000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1607468396476901</v>
+      </c>
+      <c r="T63">
+        <v>1.506972782770472</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.25</v>
+      </c>
+      <c r="W63">
+        <v>0.01695</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>5.549419555655691</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.07293303658512834</v>
+      </c>
+      <c r="C64">
+        <v>65.12106568735634</v>
+      </c>
+      <c r="D64">
+        <v>104.9350656873563</v>
+      </c>
+      <c r="E64">
+        <v>18.814</v>
+      </c>
+      <c r="F64">
+        <v>64.914</v>
+      </c>
+      <c r="G64">
+        <v>25.1</v>
+      </c>
+      <c r="H64">
+        <v>58.6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>12.8</v>
+      </c>
+      <c r="K64">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L64">
+        <v>8.01</v>
+      </c>
+      <c r="M64">
+        <v>1.4670564</v>
+      </c>
+      <c r="N64">
+        <v>6.5429436</v>
+      </c>
+      <c r="O64">
+        <v>1.6357359</v>
+      </c>
+      <c r="P64">
+        <v>4.9072077</v>
+      </c>
+      <c r="Q64">
+        <v>9.6972077</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1642737804871798</v>
+      </c>
+      <c r="T64">
+        <v>1.542067630995215</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.25</v>
+      </c>
+      <c r="W64">
+        <v>0.01695</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.459912788628985</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.07283530570765753</v>
+      </c>
+      <c r="C65">
+        <v>64.23547824267273</v>
+      </c>
+      <c r="D65">
+        <v>105.0964782426727</v>
+      </c>
+      <c r="E65">
+        <v>19.861</v>
+      </c>
+      <c r="F65">
+        <v>65.961</v>
+      </c>
+      <c r="G65">
+        <v>25.1</v>
+      </c>
+      <c r="H65">
+        <v>58.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>12.8</v>
+      </c>
+      <c r="K65">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L65">
+        <v>8.01</v>
+      </c>
+      <c r="M65">
+        <v>1.4907186</v>
+      </c>
+      <c r="N65">
+        <v>6.5192814</v>
+      </c>
+      <c r="O65">
+        <v>1.62982035</v>
+      </c>
+      <c r="P65">
+        <v>4.88946105</v>
+      </c>
+      <c r="Q65">
+        <v>9.67946105</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1679913667774528</v>
+      </c>
+      <c r="T65">
+        <v>1.579059498042917</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.25</v>
+      </c>
+      <c r="W65">
+        <v>0.01695</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.373247506269795</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.07273757483018674</v>
+      </c>
+      <c r="C66">
+        <v>63.35038813700965</v>
+      </c>
+      <c r="D66">
+        <v>105.2583881370097</v>
+      </c>
+      <c r="E66">
+        <v>20.90800000000001</v>
+      </c>
+      <c r="F66">
+        <v>67.00800000000001</v>
+      </c>
+      <c r="G66">
+        <v>25.1</v>
+      </c>
+      <c r="H66">
+        <v>58.6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>12.8</v>
+      </c>
+      <c r="K66">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L66">
+        <v>8.01</v>
+      </c>
+      <c r="M66">
+        <v>1.5143808</v>
+      </c>
+      <c r="N66">
+        <v>6.4956192</v>
+      </c>
+      <c r="O66">
+        <v>1.6239048</v>
+      </c>
+      <c r="P66">
+        <v>4.8717144</v>
+      </c>
+      <c r="Q66">
+        <v>9.661714400000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1719154856394076</v>
+      </c>
+      <c r="T66">
+        <v>1.618106468815492</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.25</v>
+      </c>
+      <c r="W66">
+        <v>0.01695</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.289290513984329</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.07263984395271594</v>
+      </c>
+      <c r="C67">
+        <v>62.46579767249054</v>
+      </c>
+      <c r="D67">
+        <v>105.4207976724905</v>
+      </c>
+      <c r="E67">
+        <v>21.95500000000001</v>
+      </c>
+      <c r="F67">
+        <v>68.05500000000001</v>
+      </c>
+      <c r="G67">
+        <v>25.1</v>
+      </c>
+      <c r="H67">
+        <v>58.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>12.8</v>
+      </c>
+      <c r="K67">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L67">
+        <v>8.01</v>
+      </c>
+      <c r="M67">
+        <v>1.538043</v>
+      </c>
+      <c r="N67">
+        <v>6.471957</v>
+      </c>
+      <c r="O67">
+        <v>1.61798925</v>
+      </c>
+      <c r="P67">
+        <v>4.85396775</v>
+      </c>
+      <c r="Q67">
+        <v>9.643967750000002</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1760638398649027</v>
+      </c>
+      <c r="T67">
+        <v>1.659384695060785</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.25</v>
+      </c>
+      <c r="W67">
+        <v>0.01695</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.207916813769185</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.07254211307524515</v>
+      </c>
+      <c r="C68">
+        <v>61.58170916546902</v>
+      </c>
+      <c r="D68">
+        <v>105.583709165469</v>
+      </c>
+      <c r="E68">
+        <v>23.002</v>
+      </c>
+      <c r="F68">
+        <v>69.102</v>
+      </c>
+      <c r="G68">
+        <v>25.1</v>
+      </c>
+      <c r="H68">
+        <v>58.6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>12.8</v>
+      </c>
+      <c r="K68">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L68">
+        <v>8.01</v>
+      </c>
+      <c r="M68">
+        <v>1.5617052</v>
+      </c>
+      <c r="N68">
+        <v>6.448294799999999</v>
+      </c>
+      <c r="O68">
+        <v>1.6120737</v>
+      </c>
+      <c r="P68">
+        <v>4.836221099999999</v>
+      </c>
+      <c r="Q68">
+        <v>9.6262211</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1804562149271916</v>
+      </c>
+      <c r="T68">
+        <v>1.703091052261684</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.25</v>
+      </c>
+      <c r="W68">
+        <v>0.01695</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>5.129008983257531</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.07244438219777435</v>
+      </c>
+      <c r="C69">
+        <v>60.6981249466393</v>
+      </c>
+      <c r="D69">
+        <v>105.7471249466393</v>
+      </c>
+      <c r="E69">
+        <v>24.049</v>
+      </c>
+      <c r="F69">
+        <v>70.149</v>
+      </c>
+      <c r="G69">
+        <v>25.1</v>
+      </c>
+      <c r="H69">
+        <v>58.6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>12.8</v>
+      </c>
+      <c r="K69">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L69">
+        <v>8.01</v>
+      </c>
+      <c r="M69">
+        <v>1.5853674</v>
+      </c>
+      <c r="N69">
+        <v>6.4246326</v>
+      </c>
+      <c r="O69">
+        <v>1.60615815</v>
+      </c>
+      <c r="P69">
+        <v>4.81847445</v>
+      </c>
+      <c r="Q69">
+        <v>9.608474450000001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1851147945387102</v>
+      </c>
+      <c r="T69">
+        <v>1.74944627959597</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.25</v>
+      </c>
+      <c r="W69">
+        <v>0.01695</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>5.052456610373091</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.07234665132030357</v>
+      </c>
+      <c r="C70">
+        <v>59.81504736114697</v>
+      </c>
+      <c r="D70">
+        <v>105.911047361147</v>
+      </c>
+      <c r="E70">
+        <v>25.09600000000001</v>
+      </c>
+      <c r="F70">
+        <v>71.19600000000001</v>
+      </c>
+      <c r="G70">
+        <v>25.1</v>
+      </c>
+      <c r="H70">
+        <v>58.6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>12.8</v>
+      </c>
+      <c r="K70">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L70">
+        <v>8.01</v>
+      </c>
+      <c r="M70">
+        <v>1.6090296</v>
+      </c>
+      <c r="N70">
+        <v>6.400970399999999</v>
+      </c>
+      <c r="O70">
+        <v>1.6002426</v>
+      </c>
+      <c r="P70">
+        <v>4.8007278</v>
+      </c>
+      <c r="Q70">
+        <v>9.5907278</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1900645353759487</v>
+      </c>
+      <c r="T70">
+        <v>1.79869870863865</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.25</v>
+      </c>
+      <c r="W70">
+        <v>0.01695</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>4.978155777867603</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.07224892044283276</v>
+      </c>
+      <c r="C71">
+        <v>58.93247876870156</v>
+      </c>
+      <c r="D71">
+        <v>106.0754787687016</v>
+      </c>
+      <c r="E71">
+        <v>26.14300000000001</v>
+      </c>
+      <c r="F71">
+        <v>72.24300000000001</v>
+      </c>
+      <c r="G71">
+        <v>25.1</v>
+      </c>
+      <c r="H71">
+        <v>58.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>12.8</v>
+      </c>
+      <c r="K71">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L71">
+        <v>8.01</v>
+      </c>
+      <c r="M71">
+        <v>1.6326918</v>
+      </c>
+      <c r="N71">
+        <v>6.3773082</v>
+      </c>
+      <c r="O71">
+        <v>1.59432705</v>
+      </c>
+      <c r="P71">
+        <v>4.782981149999999</v>
+      </c>
+      <c r="Q71">
+        <v>9.57298115</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1953336143317186</v>
+      </c>
+      <c r="T71">
+        <v>1.851128713748599</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.25</v>
+      </c>
+      <c r="W71">
+        <v>0.01695</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>4.906008592681117</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.07215118956536197</v>
+      </c>
+      <c r="C72">
+        <v>58.05042154368944</v>
+      </c>
+      <c r="D72">
+        <v>106.2404215436894</v>
+      </c>
+      <c r="E72">
+        <v>27.19</v>
+      </c>
+      <c r="F72">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="G72">
+        <v>25.1</v>
+      </c>
+      <c r="H72">
+        <v>58.6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>12.8</v>
+      </c>
+      <c r="K72">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L72">
+        <v>8.01</v>
+      </c>
+      <c r="M72">
+        <v>1.656354</v>
+      </c>
+      <c r="N72">
+        <v>6.353645999999999</v>
+      </c>
+      <c r="O72">
+        <v>1.5884115</v>
+      </c>
+      <c r="P72">
+        <v>4.7652345</v>
+      </c>
+      <c r="Q72">
+        <v>9.555234500000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2009539652178733</v>
+      </c>
+      <c r="T72">
+        <v>1.907054052532544</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.25</v>
+      </c>
+      <c r="W72">
+        <v>0.01695</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>4.835922755642815</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.07205345868789119</v>
+      </c>
+      <c r="C73">
+        <v>57.16887807528828</v>
+      </c>
+      <c r="D73">
+        <v>106.4058780752883</v>
+      </c>
+      <c r="E73">
+        <v>28.237</v>
+      </c>
+      <c r="F73">
+        <v>74.337</v>
+      </c>
+      <c r="G73">
+        <v>25.1</v>
+      </c>
+      <c r="H73">
+        <v>58.6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>12.8</v>
+      </c>
+      <c r="K73">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L73">
+        <v>8.01</v>
+      </c>
+      <c r="M73">
+        <v>1.6800162</v>
+      </c>
+      <c r="N73">
+        <v>6.3299838</v>
+      </c>
+      <c r="O73">
+        <v>1.58249595</v>
+      </c>
+      <c r="P73">
+        <v>4.74748785</v>
+      </c>
+      <c r="Q73">
+        <v>9.537487850000002</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2069619265099696</v>
+      </c>
+      <c r="T73">
+        <v>1.966836311232624</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.25</v>
+      </c>
+      <c r="W73">
+        <v>0.01695</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>4.76781116753517</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.07195572781042039</v>
+      </c>
+      <c r="C74">
+        <v>56.2878507675825</v>
+      </c>
+      <c r="D74">
+        <v>106.5718507675825</v>
+      </c>
+      <c r="E74">
+        <v>29.284</v>
+      </c>
+      <c r="F74">
+        <v>75.384</v>
+      </c>
+      <c r="G74">
+        <v>25.1</v>
+      </c>
+      <c r="H74">
+        <v>58.6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>12.8</v>
+      </c>
+      <c r="K74">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L74">
+        <v>8.01</v>
+      </c>
+      <c r="M74">
+        <v>1.7036784</v>
+      </c>
+      <c r="N74">
+        <v>6.3063216</v>
+      </c>
+      <c r="O74">
+        <v>1.5765804</v>
+      </c>
+      <c r="P74">
+        <v>4.7297412</v>
+      </c>
+      <c r="Q74">
+        <v>9.519741200000002</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2133990278943585</v>
+      </c>
+      <c r="T74">
+        <v>2.030888731268423</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.25</v>
+      </c>
+      <c r="W74">
+        <v>0.01695</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>4.701591567986071</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.07185799693294959</v>
+      </c>
+      <c r="C75">
+        <v>55.40734203967945</v>
+      </c>
+      <c r="D75">
+        <v>106.7383420396794</v>
+      </c>
+      <c r="E75">
+        <v>30.331</v>
+      </c>
+      <c r="F75">
+        <v>76.431</v>
+      </c>
+      <c r="G75">
+        <v>25.1</v>
+      </c>
+      <c r="H75">
+        <v>58.6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>12.8</v>
+      </c>
+      <c r="K75">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L75">
+        <v>8.01</v>
+      </c>
+      <c r="M75">
+        <v>1.7273406</v>
+      </c>
+      <c r="N75">
+        <v>6.2826594</v>
+      </c>
+      <c r="O75">
+        <v>1.57066485</v>
+      </c>
+      <c r="P75">
+        <v>4.71199455</v>
+      </c>
+      <c r="Q75">
+        <v>9.501994550000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.220312951603517</v>
+      </c>
+      <c r="T75">
+        <v>2.099685775010578</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.25</v>
+      </c>
+      <c r="W75">
+        <v>0.01695</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>4.637186204041056</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.07176026605547879</v>
+      </c>
+      <c r="C76">
+        <v>54.52735432582709</v>
+      </c>
+      <c r="D76">
+        <v>106.9053543258271</v>
+      </c>
+      <c r="E76">
+        <v>31.37799999999999</v>
+      </c>
+      <c r="F76">
+        <v>77.47799999999999</v>
+      </c>
+      <c r="G76">
+        <v>25.1</v>
+      </c>
+      <c r="H76">
+        <v>58.6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>12.8</v>
+      </c>
+      <c r="K76">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L76">
+        <v>8.01</v>
+      </c>
+      <c r="M76">
+        <v>1.7510028</v>
+      </c>
+      <c r="N76">
+        <v>6.2589972</v>
+      </c>
+      <c r="O76">
+        <v>1.5647493</v>
+      </c>
+      <c r="P76">
+        <v>4.6942479</v>
+      </c>
+      <c r="Q76">
+        <v>9.4842479</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2277587155979953</v>
+      </c>
+      <c r="T76">
+        <v>2.173774899040592</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.25</v>
+      </c>
+      <c r="W76">
+        <v>0.01695</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>4.574521525608069</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.07166253517800801</v>
+      </c>
+      <c r="C77">
+        <v>53.64789007553264</v>
+      </c>
+      <c r="D77">
+        <v>107.0728900755327</v>
+      </c>
+      <c r="E77">
+        <v>32.425</v>
+      </c>
+      <c r="F77">
+        <v>78.52500000000001</v>
+      </c>
+      <c r="G77">
+        <v>25.1</v>
+      </c>
+      <c r="H77">
+        <v>58.6</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>12.8</v>
+      </c>
+      <c r="K77">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L77">
+        <v>8.01</v>
+      </c>
+      <c r="M77">
+        <v>1.774665</v>
+      </c>
+      <c r="N77">
+        <v>6.235335</v>
+      </c>
+      <c r="O77">
+        <v>1.55883375</v>
+      </c>
+      <c r="P77">
+        <v>4.67650125</v>
+      </c>
+      <c r="Q77">
+        <v>9.46650125</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.235800140712032</v>
+      </c>
+      <c r="T77">
+        <v>2.253791152993006</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.25</v>
+      </c>
+      <c r="W77">
+        <v>0.01695</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>4.513527905266628</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1234094590862377</v>
+      </c>
+      <c r="C78">
+        <v>4.044944409490398</v>
+      </c>
+      <c r="D78">
+        <v>58.5169444094904</v>
+      </c>
+      <c r="E78">
+        <v>33.472</v>
+      </c>
+      <c r="F78">
+        <v>79.572</v>
+      </c>
+      <c r="G78">
+        <v>25.1</v>
+      </c>
+      <c r="H78">
+        <v>58.6</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>12.8</v>
+      </c>
+      <c r="K78">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L78">
+        <v>8.01</v>
+      </c>
+      <c r="M78">
+        <v>8.673348000000001</v>
+      </c>
+      <c r="N78">
+        <v>-0.6633480000000009</v>
+      </c>
+      <c r="O78">
+        <v>-0.1658370000000002</v>
+      </c>
+      <c r="P78">
+        <v>-0.4975110000000007</v>
+      </c>
+      <c r="Q78">
+        <v>4.292489</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2487313899366877</v>
+      </c>
+      <c r="T78">
+        <v>2.382463634202323</v>
+      </c>
+      <c r="U78">
+        <v>0.109</v>
+      </c>
+      <c r="V78">
+        <v>0.230879701817568</v>
+      </c>
+      <c r="W78">
+        <v>0.08383411250188509</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.923518807270272</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1244064590862377</v>
+      </c>
+      <c r="C79">
+        <v>2.491097147925757</v>
+      </c>
+      <c r="D79">
+        <v>58.01009714792576</v>
+      </c>
+      <c r="E79">
+        <v>34.519</v>
+      </c>
+      <c r="F79">
+        <v>80.619</v>
+      </c>
+      <c r="G79">
+        <v>25.1</v>
+      </c>
+      <c r="H79">
+        <v>58.6</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>12.8</v>
+      </c>
+      <c r="K79">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L79">
+        <v>8.01</v>
+      </c>
+      <c r="M79">
+        <v>8.787471</v>
+      </c>
+      <c r="N79">
+        <v>-0.7774710000000002</v>
+      </c>
+      <c r="O79">
+        <v>-0.1943677500000001</v>
+      </c>
+      <c r="P79">
+        <v>-0.5831032500000002</v>
+      </c>
+      <c r="Q79">
+        <v>4.20689675</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2591414503687176</v>
+      </c>
+      <c r="T79">
+        <v>2.486049009602424</v>
+      </c>
+      <c r="U79">
+        <v>0.109</v>
+      </c>
+      <c r="V79">
+        <v>0.2278812641316256</v>
+      </c>
+      <c r="W79">
+        <v>0.08416094220965281</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.9115250565265023</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1254034590862377</v>
+      </c>
+      <c r="C80">
+        <v>0.9459546523303004</v>
+      </c>
+      <c r="D80">
+        <v>57.51195465233031</v>
+      </c>
+      <c r="E80">
+        <v>35.56600000000001</v>
+      </c>
+      <c r="F80">
+        <v>81.66600000000001</v>
+      </c>
+      <c r="G80">
+        <v>25.1</v>
+      </c>
+      <c r="H80">
+        <v>58.6</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>12.8</v>
+      </c>
+      <c r="K80">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L80">
+        <v>8.01</v>
+      </c>
+      <c r="M80">
+        <v>8.901594000000001</v>
+      </c>
+      <c r="N80">
+        <v>-0.8915940000000013</v>
+      </c>
+      <c r="O80">
+        <v>-0.2228985000000003</v>
+      </c>
+      <c r="P80">
+        <v>-0.668695500000001</v>
+      </c>
+      <c r="Q80">
+        <v>4.1213045</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.270497879930932</v>
+      </c>
+      <c r="T80">
+        <v>2.599051237311625</v>
+      </c>
+      <c r="U80">
+        <v>0.109</v>
+      </c>
+      <c r="V80">
+        <v>0.2249597094632714</v>
+      </c>
+      <c r="W80">
+        <v>0.08447939166850342</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.8998388378530855</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1264004590862377</v>
+      </c>
+      <c r="C81">
+        <v>-0.5907054159205387</v>
+      </c>
+      <c r="D81">
+        <v>57.02229458407948</v>
+      </c>
+      <c r="E81">
+        <v>36.61300000000001</v>
+      </c>
+      <c r="F81">
+        <v>82.71300000000001</v>
+      </c>
+      <c r="G81">
+        <v>25.1</v>
+      </c>
+      <c r="H81">
+        <v>58.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>12.8</v>
+      </c>
+      <c r="K81">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L81">
+        <v>8.01</v>
+      </c>
+      <c r="M81">
+        <v>9.015717</v>
+      </c>
+      <c r="N81">
+        <v>-1.005717000000001</v>
+      </c>
+      <c r="O81">
+        <v>-0.2514292500000002</v>
+      </c>
+      <c r="P81">
+        <v>-0.7542877500000005</v>
+      </c>
+      <c r="Q81">
+        <v>4.03571225</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2829358742133573</v>
+      </c>
+      <c r="T81">
+        <v>2.722815581945512</v>
+      </c>
+      <c r="U81">
+        <v>0.109</v>
+      </c>
+      <c r="V81">
+        <v>0.2221121182042426</v>
+      </c>
+      <c r="W81">
+        <v>0.08478977911573754</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.8884484728169706</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1273974590862377</v>
+      </c>
+      <c r="C82">
+        <v>-2.119097887360695</v>
+      </c>
+      <c r="D82">
+        <v>56.54090211263931</v>
+      </c>
+      <c r="E82">
+        <v>37.66</v>
+      </c>
+      <c r="F82">
+        <v>83.76000000000001</v>
+      </c>
+      <c r="G82">
+        <v>25.1</v>
+      </c>
+      <c r="H82">
+        <v>58.6</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>12.8</v>
+      </c>
+      <c r="K82">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L82">
+        <v>8.01</v>
+      </c>
+      <c r="M82">
+        <v>9.12984</v>
+      </c>
+      <c r="N82">
+        <v>-1.11984</v>
+      </c>
+      <c r="O82">
+        <v>-0.27996</v>
+      </c>
+      <c r="P82">
+        <v>-0.83988</v>
+      </c>
+      <c r="Q82">
+        <v>3.950120000000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2966176679240252</v>
+      </c>
+      <c r="T82">
+        <v>2.858956361042788</v>
+      </c>
+      <c r="U82">
+        <v>0.109</v>
+      </c>
+      <c r="V82">
+        <v>0.2193357167266896</v>
+      </c>
+      <c r="W82">
+        <v>0.08509240687679083</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.8773428669067584</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1283944590862377</v>
+      </c>
+      <c r="C83">
+        <v>-3.639430398703496</v>
+      </c>
+      <c r="D83">
+        <v>56.0675696012965</v>
+      </c>
+      <c r="E83">
+        <v>38.707</v>
+      </c>
+      <c r="F83">
+        <v>84.807</v>
+      </c>
+      <c r="G83">
+        <v>25.1</v>
+      </c>
+      <c r="H83">
+        <v>58.6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>12.8</v>
+      </c>
+      <c r="K83">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L83">
+        <v>8.01</v>
+      </c>
+      <c r="M83">
+        <v>9.243963000000001</v>
+      </c>
+      <c r="N83">
+        <v>-1.233963000000001</v>
+      </c>
+      <c r="O83">
+        <v>-0.3084907500000003</v>
+      </c>
+      <c r="P83">
+        <v>-0.9254722500000008</v>
+      </c>
+      <c r="Q83">
+        <v>3.86452775</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3117396504463423</v>
+      </c>
+      <c r="T83">
+        <v>3.009427748466093</v>
+      </c>
+      <c r="U83">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>0.2166278683720391</v>
+      </c>
+      <c r="W83">
+        <v>0.08538756234744774</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.8665114734881565</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1293914590862377</v>
+      </c>
+      <c r="C84">
+        <v>-5.15190369145742</v>
+      </c>
+      <c r="D84">
+        <v>55.6020963085426</v>
+      </c>
+      <c r="E84">
+        <v>39.75400000000001</v>
+      </c>
+      <c r="F84">
+        <v>85.85400000000001</v>
+      </c>
+      <c r="G84">
+        <v>25.1</v>
+      </c>
+      <c r="H84">
+        <v>58.6</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>12.8</v>
+      </c>
+      <c r="K84">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L84">
+        <v>8.01</v>
+      </c>
+      <c r="M84">
+        <v>9.358086000000002</v>
+      </c>
+      <c r="N84">
+        <v>-1.348086000000002</v>
+      </c>
+      <c r="O84">
+        <v>-0.3370215000000005</v>
+      </c>
+      <c r="P84">
+        <v>-1.011064500000002</v>
+      </c>
+      <c r="Q84">
+        <v>3.778935499999999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3285418532489169</v>
+      </c>
+      <c r="T84">
+        <v>3.176618178936431</v>
+      </c>
+      <c r="U84">
+        <v>0.109</v>
+      </c>
+      <c r="V84">
+        <v>0.2139860650992093</v>
+      </c>
+      <c r="W84">
+        <v>0.08567551890418618</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.8559442603968374</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1303884590862377</v>
+      </c>
+      <c r="C85">
+        <v>-6.656711895789556</v>
+      </c>
+      <c r="D85">
+        <v>55.14428810421045</v>
+      </c>
+      <c r="E85">
+        <v>40.80100000000001</v>
+      </c>
+      <c r="F85">
+        <v>86.90100000000001</v>
+      </c>
+      <c r="G85">
+        <v>25.1</v>
+      </c>
+      <c r="H85">
+        <v>58.6</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>12.8</v>
+      </c>
+      <c r="K85">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L85">
+        <v>8.01</v>
+      </c>
+      <c r="M85">
+        <v>9.472209000000001</v>
+      </c>
+      <c r="N85">
+        <v>-1.462209000000001</v>
+      </c>
+      <c r="O85">
+        <v>-0.3655522500000004</v>
+      </c>
+      <c r="P85">
+        <v>-1.096656750000001</v>
+      </c>
+      <c r="Q85">
+        <v>3.69334325</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3473207857929709</v>
+      </c>
+      <c r="T85">
+        <v>3.363478071815045</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.2114079197365683</v>
+      </c>
+      <c r="W85">
+        <v>0.08595653674871406</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.8456316789462731</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1313854590862377</v>
+      </c>
+      <c r="C86">
+        <v>-8.154042800480354</v>
+      </c>
+      <c r="D86">
+        <v>54.69395719951964</v>
+      </c>
+      <c r="E86">
+        <v>41.84799999999999</v>
+      </c>
+      <c r="F86">
+        <v>87.94799999999999</v>
+      </c>
+      <c r="G86">
+        <v>25.1</v>
+      </c>
+      <c r="H86">
+        <v>58.6</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>12.8</v>
+      </c>
+      <c r="K86">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L86">
+        <v>8.01</v>
+      </c>
+      <c r="M86">
+        <v>9.586331999999999</v>
+      </c>
+      <c r="N86">
+        <v>-1.576331999999999</v>
+      </c>
+      <c r="O86">
+        <v>-0.3940829999999997</v>
+      </c>
+      <c r="P86">
+        <v>-1.182248999999999</v>
+      </c>
+      <c r="Q86">
+        <v>3.607751000000002</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3684470849050314</v>
+      </c>
+      <c r="T86">
+        <v>3.573695451303484</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.2088911587873235</v>
+      </c>
+      <c r="W86">
+        <v>0.08623086369218175</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.8355646351492939</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1323824590862377</v>
+      </c>
+      <c r="C87">
+        <v>-9.64407810975797</v>
+      </c>
+      <c r="D87">
+        <v>54.25092189024203</v>
+      </c>
+      <c r="E87">
+        <v>42.895</v>
+      </c>
+      <c r="F87">
+        <v>88.995</v>
+      </c>
+      <c r="G87">
+        <v>25.1</v>
+      </c>
+      <c r="H87">
+        <v>58.6</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>12.8</v>
+      </c>
+      <c r="K87">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L87">
+        <v>8.01</v>
+      </c>
+      <c r="M87">
+        <v>9.700455</v>
+      </c>
+      <c r="N87">
+        <v>-1.690455</v>
+      </c>
+      <c r="O87">
+        <v>-0.42261375</v>
+      </c>
+      <c r="P87">
+        <v>-1.26784125</v>
+      </c>
+      <c r="Q87">
+        <v>3.522158750000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3923902238987002</v>
+      </c>
+      <c r="T87">
+        <v>3.811941814723717</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.2064336157427667</v>
+      </c>
+      <c r="W87">
+        <v>0.08649873588403843</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.8257344629710668</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1333794590862377</v>
+      </c>
+      <c r="C88">
+        <v>-11.12699368775044</v>
+      </c>
+      <c r="D88">
+        <v>53.81500631224956</v>
+      </c>
+      <c r="E88">
+        <v>43.942</v>
+      </c>
+      <c r="F88">
+        <v>90.042</v>
+      </c>
+      <c r="G88">
+        <v>25.1</v>
+      </c>
+      <c r="H88">
+        <v>58.6</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>12.8</v>
+      </c>
+      <c r="K88">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L88">
+        <v>8.01</v>
+      </c>
+      <c r="M88">
+        <v>9.814578000000001</v>
+      </c>
+      <c r="N88">
+        <v>-1.804578000000001</v>
+      </c>
+      <c r="O88">
+        <v>-0.4511445000000003</v>
+      </c>
+      <c r="P88">
+        <v>-1.353433500000001</v>
+      </c>
+      <c r="Q88">
+        <v>3.4365665</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4197538113200358</v>
+      </c>
+      <c r="T88">
+        <v>4.084223372918267</v>
+      </c>
+      <c r="U88">
+        <v>0.109</v>
+      </c>
+      <c r="V88">
+        <v>0.2040332248620368</v>
+      </c>
+      <c r="W88">
+        <v>0.08676037849003798</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.8161328994481474</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1343764590862377</v>
+      </c>
+      <c r="C89">
+        <v>-12.60295979124655</v>
+      </c>
+      <c r="D89">
+        <v>53.38604020875345</v>
+      </c>
+      <c r="E89">
+        <v>44.989</v>
+      </c>
+      <c r="F89">
+        <v>91.089</v>
+      </c>
+      <c r="G89">
+        <v>25.1</v>
+      </c>
+      <c r="H89">
+        <v>58.6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>12.8</v>
+      </c>
+      <c r="K89">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L89">
+        <v>8.01</v>
+      </c>
+      <c r="M89">
+        <v>9.928701</v>
+      </c>
+      <c r="N89">
+        <v>-1.918701</v>
+      </c>
+      <c r="O89">
+        <v>-0.4796752500000001</v>
+      </c>
+      <c r="P89">
+        <v>-1.43902575</v>
+      </c>
+      <c r="Q89">
+        <v>3.350974250000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4513271814215771</v>
+      </c>
+      <c r="T89">
+        <v>4.398394401604288</v>
+      </c>
+      <c r="U89">
+        <v>0.109</v>
+      </c>
+      <c r="V89">
+        <v>0.201688015380864</v>
+      </c>
+      <c r="W89">
+        <v>0.08701600632348583</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.806752061523456</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1655508506910137</v>
+      </c>
+      <c r="C90">
+        <v>-24.30127667263179</v>
+      </c>
+      <c r="D90">
+        <v>42.73472332736822</v>
+      </c>
+      <c r="E90">
+        <v>46.03600000000001</v>
+      </c>
+      <c r="F90">
+        <v>92.13600000000001</v>
+      </c>
+      <c r="G90">
+        <v>25.1</v>
+      </c>
+      <c r="H90">
+        <v>58.6</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>12.8</v>
+      </c>
+      <c r="K90">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L90">
+        <v>8.01</v>
+      </c>
+      <c r="M90">
+        <v>12.9174672</v>
+      </c>
+      <c r="N90">
+        <v>-4.907467200000001</v>
+      </c>
+      <c r="O90">
+        <v>-1.2268668</v>
+      </c>
+      <c r="P90">
+        <v>-3.680600400000001</v>
+      </c>
+      <c r="Q90">
+        <v>1.1093996</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5108410432465083</v>
+      </c>
+      <c r="T90">
+        <v>4.990587478570235</v>
+      </c>
+      <c r="U90">
+        <v>0.1402</v>
+      </c>
+      <c r="V90">
+        <v>0.155022650260726</v>
+      </c>
+      <c r="W90">
+        <v>0.1184658244334462</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.6200906010429041</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1668598506910136</v>
+      </c>
+      <c r="C91">
+        <v>-25.70331479046567</v>
+      </c>
+      <c r="D91">
+        <v>42.37968520953434</v>
+      </c>
+      <c r="E91">
+        <v>47.08300000000001</v>
+      </c>
+      <c r="F91">
+        <v>93.18300000000001</v>
+      </c>
+      <c r="G91">
+        <v>25.1</v>
+      </c>
+      <c r="H91">
+        <v>58.6</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>12.8</v>
+      </c>
+      <c r="K91">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L91">
+        <v>8.01</v>
+      </c>
+      <c r="M91">
+        <v>13.0642566</v>
+      </c>
+      <c r="N91">
+        <v>-5.0542566</v>
+      </c>
+      <c r="O91">
+        <v>-1.26356415</v>
+      </c>
+      <c r="P91">
+        <v>-3.79069245</v>
+      </c>
+      <c r="Q91">
+        <v>0.9993075500000006</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5564356835416454</v>
+      </c>
+      <c r="T91">
+        <v>5.444277249349347</v>
+      </c>
+      <c r="U91">
+        <v>0.1402</v>
+      </c>
+      <c r="V91">
+        <v>0.1532808227297066</v>
+      </c>
+      <c r="W91">
+        <v>0.1187100286532951</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.6131232909188266</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1681688506910137</v>
+      </c>
+      <c r="C92">
+        <v>-27.09950223468765</v>
+      </c>
+      <c r="D92">
+        <v>42.03049776531235</v>
+      </c>
+      <c r="E92">
+        <v>48.13</v>
+      </c>
+      <c r="F92">
+        <v>94.23</v>
+      </c>
+      <c r="G92">
+        <v>25.1</v>
+      </c>
+      <c r="H92">
+        <v>58.6</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>12.8</v>
+      </c>
+      <c r="K92">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L92">
+        <v>8.01</v>
+      </c>
+      <c r="M92">
+        <v>13.211046</v>
+      </c>
+      <c r="N92">
+        <v>-5.201046</v>
+      </c>
+      <c r="O92">
+        <v>-1.3002615</v>
+      </c>
+      <c r="P92">
+        <v>-3.9007845</v>
+      </c>
+      <c r="Q92">
+        <v>0.889215500000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.6111492518958102</v>
+      </c>
+      <c r="T92">
+        <v>5.988704974284284</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.1515777024771544</v>
+      </c>
+      <c r="W92">
+        <v>0.118948806112703</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.6063108099086174</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1694778506910136</v>
+      </c>
+      <c r="C93">
+        <v>-28.48998244332726</v>
+      </c>
+      <c r="D93">
+        <v>41.68701755667274</v>
+      </c>
+      <c r="E93">
+        <v>49.177</v>
+      </c>
+      <c r="F93">
+        <v>95.277</v>
+      </c>
+      <c r="G93">
+        <v>25.1</v>
+      </c>
+      <c r="H93">
+        <v>58.6</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>12.8</v>
+      </c>
+      <c r="K93">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L93">
+        <v>8.01</v>
+      </c>
+      <c r="M93">
+        <v>13.3578354</v>
+      </c>
+      <c r="N93">
+        <v>-5.347835399999999</v>
+      </c>
+      <c r="O93">
+        <v>-1.33695885</v>
+      </c>
+      <c r="P93">
+        <v>-4.010876549999999</v>
+      </c>
+      <c r="Q93">
+        <v>0.7791234500000019</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6780213909953445</v>
+      </c>
+      <c r="T93">
+        <v>6.654116638093647</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.1499120134389439</v>
+      </c>
+      <c r="W93">
+        <v>0.1191823357158601</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.5996480537557755</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1707868506910137</v>
+      </c>
+      <c r="C94">
+        <v>-29.87489420362344</v>
+      </c>
+      <c r="D94">
+        <v>41.34910579637657</v>
+      </c>
+      <c r="E94">
+        <v>50.22400000000001</v>
+      </c>
+      <c r="F94">
+        <v>96.32400000000001</v>
+      </c>
+      <c r="G94">
+        <v>25.1</v>
+      </c>
+      <c r="H94">
+        <v>58.6</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>12.8</v>
+      </c>
+      <c r="K94">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L94">
+        <v>8.01</v>
+      </c>
+      <c r="M94">
+        <v>13.5046248</v>
+      </c>
+      <c r="N94">
+        <v>-5.4946248</v>
+      </c>
+      <c r="O94">
+        <v>-1.3736562</v>
+      </c>
+      <c r="P94">
+        <v>-4.1209686</v>
+      </c>
+      <c r="Q94">
+        <v>0.6690314000000006</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7616115648697629</v>
+      </c>
+      <c r="T94">
+        <v>7.485881217855356</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.1482825350319988</v>
+      </c>
+      <c r="W94">
+        <v>0.1194107885885138</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.5931301401279953</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1720958506910137</v>
+      </c>
+      <c r="C95">
+        <v>-31.25437183900365</v>
+      </c>
+      <c r="D95">
+        <v>41.01662816099636</v>
+      </c>
+      <c r="E95">
+        <v>51.27100000000001</v>
+      </c>
+      <c r="F95">
+        <v>97.37100000000001</v>
+      </c>
+      <c r="G95">
+        <v>25.1</v>
+      </c>
+      <c r="H95">
+        <v>58.6</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>12.8</v>
+      </c>
+      <c r="K95">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L95">
+        <v>8.01</v>
+      </c>
+      <c r="M95">
+        <v>13.6514142</v>
+      </c>
+      <c r="N95">
+        <v>-5.6414142</v>
+      </c>
+      <c r="O95">
+        <v>-1.41035355</v>
+      </c>
+      <c r="P95">
+        <v>-4.23106065</v>
+      </c>
+      <c r="Q95">
+        <v>0.5589393500000011</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8690846455654433</v>
+      </c>
+      <c r="T95">
+        <v>8.555292820406121</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.1466880991714397</v>
+      </c>
+      <c r="W95">
+        <v>0.1196343284961641</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.5867523966857587</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1734048506910137</v>
+      </c>
+      <c r="C96">
+        <v>-32.62854538711426</v>
+      </c>
+      <c r="D96">
+        <v>40.68945461288574</v>
+      </c>
+      <c r="E96">
+        <v>52.318</v>
+      </c>
+      <c r="F96">
+        <v>98.41800000000001</v>
+      </c>
+      <c r="G96">
+        <v>25.1</v>
+      </c>
+      <c r="H96">
+        <v>58.6</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>12.8</v>
+      </c>
+      <c r="K96">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L96">
+        <v>8.01</v>
+      </c>
+      <c r="M96">
+        <v>13.7982036</v>
+      </c>
+      <c r="N96">
+        <v>-5.788203600000001</v>
+      </c>
+      <c r="O96">
+        <v>-1.4470509</v>
+      </c>
+      <c r="P96">
+        <v>-4.3411527</v>
+      </c>
+      <c r="Q96">
+        <v>0.4488473000000006</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.012382086493018</v>
+      </c>
+      <c r="T96">
+        <v>9.981174957140478</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.1451275874781265</v>
+      </c>
+      <c r="W96">
+        <v>0.1198531122355667</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.5805103499125059</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1747138506910137</v>
+      </c>
+      <c r="C97">
+        <v>-33.99754076939794</v>
+      </c>
+      <c r="D97">
+        <v>40.36745923060206</v>
+      </c>
+      <c r="E97">
+        <v>53.365</v>
+      </c>
+      <c r="F97">
+        <v>99.465</v>
+      </c>
+      <c r="G97">
+        <v>25.1</v>
+      </c>
+      <c r="H97">
+        <v>58.6</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>12.8</v>
+      </c>
+      <c r="K97">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L97">
+        <v>8.01</v>
+      </c>
+      <c r="M97">
+        <v>13.944993</v>
+      </c>
+      <c r="N97">
+        <v>-5.934993</v>
+      </c>
+      <c r="O97">
+        <v>-1.48374825</v>
+      </c>
+      <c r="P97">
+        <v>-4.451244750000001</v>
+      </c>
+      <c r="Q97">
+        <v>0.3387552500000002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.212998503791622</v>
+      </c>
+      <c r="T97">
+        <v>11.97740994856858</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.1435999286625673</v>
+      </c>
+      <c r="W97">
+        <v>0.1200672900015081</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.5743997146502691</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1760228506910136</v>
+      </c>
+      <c r="C98">
+        <v>-35.36147995268234</v>
+      </c>
+      <c r="D98">
+        <v>40.05052004731766</v>
+      </c>
+      <c r="E98">
+        <v>54.412</v>
+      </c>
+      <c r="F98">
+        <v>100.512</v>
+      </c>
+      <c r="G98">
+        <v>25.1</v>
+      </c>
+      <c r="H98">
+        <v>58.6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>12.8</v>
+      </c>
+      <c r="K98">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L98">
+        <v>8.01</v>
+      </c>
+      <c r="M98">
+        <v>14.0917824</v>
+      </c>
+      <c r="N98">
+        <v>-6.0817824</v>
+      </c>
+      <c r="O98">
+        <v>-1.5204456</v>
+      </c>
+      <c r="P98">
+        <v>-4.561336799999999</v>
+      </c>
+      <c r="Q98">
+        <v>0.2286632000000015</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.513923129739524</v>
+      </c>
+      <c r="T98">
+        <v>14.97176243571069</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.1421040960723322</v>
+      </c>
+      <c r="W98">
+        <v>0.120277005730659</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.5684163842893288</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1773318506910136</v>
+      </c>
+      <c r="C99">
+        <v>-36.72048110321626</v>
+      </c>
+      <c r="D99">
+        <v>39.73851889678374</v>
+      </c>
+      <c r="E99">
+        <v>55.459</v>
+      </c>
+      <c r="F99">
+        <v>101.559</v>
+      </c>
+      <c r="G99">
+        <v>25.1</v>
+      </c>
+      <c r="H99">
+        <v>58.6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>12.8</v>
+      </c>
+      <c r="K99">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L99">
+        <v>8.01</v>
+      </c>
+      <c r="M99">
+        <v>14.2385718</v>
+      </c>
+      <c r="N99">
+        <v>-6.228571799999999</v>
+      </c>
+      <c r="O99">
+        <v>-1.55714295</v>
+      </c>
+      <c r="P99">
+        <v>-4.67142885</v>
+      </c>
+      <c r="Q99">
+        <v>0.1185711500000011</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.015464172986031</v>
+      </c>
+      <c r="T99">
+        <v>19.96234991428092</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.1406391053911741</v>
+      </c>
+      <c r="W99">
+        <v>0.1204823974241574</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.5625564215646965</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1786408506910137</v>
+      </c>
+      <c r="C100">
+        <v>-38.07465873356135</v>
+      </c>
+      <c r="D100">
+        <v>39.43134126643864</v>
+      </c>
+      <c r="E100">
+        <v>56.50599999999999</v>
+      </c>
+      <c r="F100">
+        <v>102.606</v>
+      </c>
+      <c r="G100">
+        <v>25.1</v>
+      </c>
+      <c r="H100">
+        <v>58.6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>12.8</v>
+      </c>
+      <c r="K100">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L100">
+        <v>8.01</v>
+      </c>
+      <c r="M100">
+        <v>14.3853612</v>
+      </c>
+      <c r="N100">
+        <v>-6.375361199999999</v>
+      </c>
+      <c r="O100">
+        <v>-1.5938403</v>
+      </c>
+      <c r="P100">
+        <v>-4.781520899999999</v>
+      </c>
+      <c r="Q100">
+        <v>0.008479100000002404</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.018546259479047</v>
+      </c>
+      <c r="T100">
+        <v>29.94352487142138</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.1392040124790193</v>
+      </c>
+      <c r="W100">
+        <v>0.1206835974504415</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.5568160499160772</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1799498506910137</v>
+      </c>
+      <c r="C101">
+        <v>-39.42412384272356</v>
+      </c>
+      <c r="D101">
+        <v>39.12887615727644</v>
+      </c>
+      <c r="E101">
+        <v>57.553</v>
+      </c>
+      <c r="F101">
+        <v>103.653</v>
+      </c>
+      <c r="G101">
+        <v>25.1</v>
+      </c>
+      <c r="H101">
+        <v>58.6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>12.8</v>
+      </c>
+      <c r="K101">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="L101">
+        <v>8.01</v>
+      </c>
+      <c r="M101">
+        <v>14.5321506</v>
+      </c>
+      <c r="N101">
+        <v>-6.5221506</v>
+      </c>
+      <c r="O101">
+        <v>-1.63053765</v>
+      </c>
+      <c r="P101">
+        <v>-4.89161295</v>
+      </c>
+      <c r="Q101">
+        <v>-0.1016129499999989</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.027792518958094</v>
+      </c>
+      <c r="T101">
+        <v>59.88704974284276</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1377979113428676</v>
+      </c>
+      <c r="W101">
+        <v>0.12088073282973</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5511916453714704</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
